--- a/sniper/tools/results_cpu2006.xlsx
+++ b/sniper/tools/results_cpu2006.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>Execution Time</t>
   </si>
@@ -22,10 +22,10 @@
     <t>Memory Access</t>
   </si>
   <si>
-    <t>Average DRAM Bandwidth Usage</t>
+    <t>Memory Writes</t>
   </si>
   <si>
-    <t>Memory Writes</t>
+    <t>Average DRAM Bandwidth Usage</t>
   </si>
   <si>
     <t>Checkpoints</t>
@@ -40,10 +40,16 @@
     <t>Donuts-1k</t>
   </si>
   <si>
+    <t>Donuts-2k</t>
+  </si>
+  <si>
     <t>Donuts-4k</t>
   </si>
   <si>
     <t>Donuts-8k</t>
+  </si>
+  <si>
+    <t>Donuts-16k</t>
   </si>
   <si>
     <t>Overhead PiCL</t>
@@ -52,10 +58,16 @@
     <t>Overhead Donuts-1k</t>
   </si>
   <si>
+    <t>Overhead Donuts-2k</t>
+  </si>
+  <si>
     <t>Overhead Donuts-4k</t>
   </si>
   <si>
     <t>Overhead Donuts-8k</t>
+  </si>
+  <si>
+    <t>Overhead Donuts-16k</t>
   </si>
   <si>
     <t>Delta PiCL</t>
@@ -64,10 +76,16 @@
     <t>Delta Donuts-1k</t>
   </si>
   <si>
+    <t>Delta Donuts-2k</t>
+  </si>
+  <si>
     <t>Delta Donuts-4k</t>
   </si>
   <si>
     <t>Delta Donuts-8k</t>
+  </si>
+  <si>
+    <t>Delta Donuts-16k</t>
   </si>
   <si>
     <t>GemsFDTD</t>
@@ -512,13 +530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO32"/>
+  <dimension ref="A1:BG32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:59">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -531,20 +549,18 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
@@ -552,10 +568,10 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="AB1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
@@ -564,14 +580,34 @@
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
-      <c r="AL1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
+      <c r="AO1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:59">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -601,102 +637,156 @@
         <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="X2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AJ2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="BF2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:59">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>412658240</v>
@@ -708,16 +798,16 @@
         <v>423657840</v>
       </c>
       <c r="E4">
+        <v>431025840</v>
+      </c>
+      <c r="F4">
         <v>421204040</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>413907240</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
-        <v>0</v>
+        <v>415380640</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -726,37 +816,37 @@
         <v>0</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>7436</v>
       </c>
-      <c r="L4">
+      <c r="P4">
         <v>11071</v>
       </c>
-      <c r="M4">
+      <c r="Q4">
         <v>14516</v>
       </c>
-      <c r="N4">
+      <c r="R4">
+        <v>14493</v>
+      </c>
+      <c r="S4">
         <v>14531</v>
       </c>
-      <c r="O4">
+      <c r="T4">
         <v>14549</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>0</v>
+        <v>14566</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -780,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>3633</v>
       </c>
       <c r="AD4">
-        <v>3633</v>
+        <v>7080</v>
       </c>
       <c r="AE4">
-        <v>7080</v>
+        <v>7056</v>
       </c>
       <c r="AF4">
         <v>7095</v>
@@ -795,7 +885,7 @@
         <v>7113</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>7130</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -807,21 +897,75 @@
         <v>0</v>
       </c>
       <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
         <v>33</v>
       </c>
-      <c r="AM4">
+      <c r="BC4">
         <v>4</v>
       </c>
-      <c r="AN4">
+      <c r="BD4">
         <v>4</v>
       </c>
-      <c r="AO4">
+      <c r="BE4">
         <v>4</v>
       </c>
+      <c r="BF4">
+        <v>4</v>
+      </c>
+      <c r="BG4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:59">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>508752939</v>
@@ -833,16 +977,16 @@
         <v>519971880</v>
       </c>
       <c r="E5">
+        <v>518548061</v>
+      </c>
+      <c r="F5">
         <v>518661029</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>517613253</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
-        <v>0</v>
+        <v>518397313</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -851,46 +995,46 @@
         <v>0</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>3452043</v>
       </c>
-      <c r="L5">
+      <c r="P5">
         <v>5134376</v>
       </c>
-      <c r="M5">
+      <c r="Q5">
         <v>3496985</v>
       </c>
-      <c r="N5">
+      <c r="R5">
+        <v>3493634</v>
+      </c>
+      <c r="S5">
         <v>3502201</v>
       </c>
-      <c r="O5">
+      <c r="T5">
         <v>3502251</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0.06</v>
-      </c>
       <c r="U5">
-        <v>0.09</v>
+        <v>3497780</v>
       </c>
       <c r="V5">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -902,16 +1046,16 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1612880</v>
       </c>
       <c r="AC5">
-        <v>1612880</v>
+        <v>3287217</v>
       </c>
       <c r="AD5">
-        <v>3287217</v>
+        <v>1657202</v>
       </c>
       <c r="AE5">
-        <v>1657202</v>
+        <v>1654766</v>
       </c>
       <c r="AF5">
         <v>1663080</v>
@@ -920,7 +1064,7 @@
         <v>1662325</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1658115</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -932,21 +1076,75 @@
         <v>0</v>
       </c>
       <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0.06</v>
+      </c>
+      <c r="AP5">
+        <v>0.09</v>
+      </c>
+      <c r="AQ5">
+        <v>0.06</v>
+      </c>
+      <c r="AR5">
+        <v>0.06</v>
+      </c>
+      <c r="AS5">
+        <v>0.06</v>
+      </c>
+      <c r="AT5">
+        <v>0.06</v>
+      </c>
+      <c r="AU5">
+        <v>0.06</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
         <v>33</v>
       </c>
-      <c r="AM5">
+      <c r="BC5">
         <v>89</v>
       </c>
-      <c r="AN5">
+      <c r="BD5">
         <v>90</v>
       </c>
-      <c r="AO5">
+      <c r="BE5">
         <v>90</v>
       </c>
+      <c r="BF5">
+        <v>90</v>
+      </c>
+      <c r="BG5">
+        <v>90</v>
+      </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:59">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>1257990605</v>
@@ -958,16 +1156,16 @@
         <v>1341955405</v>
       </c>
       <c r="E6">
+        <v>1337810805</v>
+      </c>
+      <c r="F6">
         <v>1336596605</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1334772601</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
-        <v>0</v>
+        <v>1336470421</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -976,46 +1174,46 @@
         <v>0</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>42703786</v>
       </c>
-      <c r="L6">
+      <c r="P6">
         <v>61485130</v>
       </c>
-      <c r="M6">
+      <c r="Q6">
         <v>42714504</v>
       </c>
-      <c r="N6">
+      <c r="R6">
+        <v>42714839</v>
+      </c>
+      <c r="S6">
         <v>42714981</v>
       </c>
-      <c r="O6">
+      <c r="T6">
         <v>42711358</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0.33</v>
-      </c>
       <c r="U6">
-        <v>0.43</v>
+        <v>42716202</v>
       </c>
       <c r="V6">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1027,16 +1225,16 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>17636886</v>
       </c>
       <c r="AC6">
-        <v>17636886</v>
+        <v>35814310</v>
       </c>
       <c r="AD6">
-        <v>35814310</v>
+        <v>17649212</v>
       </c>
       <c r="AE6">
-        <v>17649212</v>
+        <v>17646703</v>
       </c>
       <c r="AF6">
         <v>17646564</v>
@@ -1045,7 +1243,7 @@
         <v>17646843</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>17659160</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1057,21 +1255,75 @@
         <v>0</v>
       </c>
       <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0.33</v>
+      </c>
+      <c r="AP6">
+        <v>0.43</v>
+      </c>
+      <c r="AQ6">
+        <v>0.31</v>
+      </c>
+      <c r="AR6">
+        <v>0.31</v>
+      </c>
+      <c r="AS6">
+        <v>0.31</v>
+      </c>
+      <c r="AT6">
+        <v>0.32</v>
+      </c>
+      <c r="AU6">
+        <v>0.31</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
         <v>33</v>
       </c>
-      <c r="AM6">
+      <c r="BC6">
         <v>726</v>
       </c>
-      <c r="AN6">
+      <c r="BD6">
         <v>724</v>
       </c>
-      <c r="AO6">
+      <c r="BE6">
+        <v>724</v>
+      </c>
+      <c r="BF6">
         <v>725</v>
       </c>
+      <c r="BG6">
+        <v>730</v>
+      </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:59">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>738098088</v>
@@ -1083,16 +1335,16 @@
         <v>779342288</v>
       </c>
       <c r="E7">
+        <v>770766088</v>
+      </c>
+      <c r="F7">
         <v>767344288</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>773901888</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
-        <v>0</v>
+        <v>775097688</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1101,46 +1353,46 @@
         <v>0</v>
       </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>14858882</v>
       </c>
-      <c r="L7">
+      <c r="P7">
         <v>20552496</v>
       </c>
-      <c r="M7">
+      <c r="Q7">
         <v>15726747</v>
       </c>
-      <c r="N7">
+      <c r="R7">
+        <v>15689216</v>
+      </c>
+      <c r="S7">
         <v>15667163</v>
       </c>
-      <c r="O7">
+      <c r="T7">
         <v>15683764</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0.2</v>
-      </c>
       <c r="U7">
-        <v>0.25</v>
+        <v>15786368</v>
       </c>
       <c r="V7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1152,16 +1404,16 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>5253293</v>
       </c>
       <c r="AC7">
-        <v>5253293</v>
+        <v>10893560</v>
       </c>
       <c r="AD7">
-        <v>10893560</v>
+        <v>6056593</v>
       </c>
       <c r="AE7">
-        <v>6056593</v>
+        <v>6041998</v>
       </c>
       <c r="AF7">
         <v>6037972</v>
@@ -1170,7 +1422,7 @@
         <v>6056543</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>6085999</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -1182,21 +1434,75 @@
         <v>0</v>
       </c>
       <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0.2</v>
+      </c>
+      <c r="AP7">
+        <v>0.25</v>
+      </c>
+      <c r="AQ7">
+        <v>0.2</v>
+      </c>
+      <c r="AR7">
+        <v>0.2</v>
+      </c>
+      <c r="AS7">
+        <v>0.2</v>
+      </c>
+      <c r="AT7">
+        <v>0.2</v>
+      </c>
+      <c r="AU7">
+        <v>0.2</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
         <v>33</v>
       </c>
-      <c r="AM7">
+      <c r="BC7">
         <v>663</v>
       </c>
-      <c r="AN7">
+      <c r="BD7">
+        <v>664</v>
+      </c>
+      <c r="BE7">
         <v>663</v>
       </c>
-      <c r="AO7">
+      <c r="BF7">
         <v>664</v>
       </c>
+      <c r="BG7">
+        <v>667</v>
+      </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:59">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>1264442850</v>
@@ -1208,16 +1514,16 @@
         <v>1048123250</v>
       </c>
       <c r="E8">
+        <v>1049987650</v>
+      </c>
+      <c r="F8">
         <v>1044152650</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1040111050</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
-        <v>0</v>
+        <v>1087743850</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1226,46 +1532,46 @@
         <v>0</v>
       </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>40732874</v>
       </c>
-      <c r="L8">
+      <c r="P8">
         <v>57132271</v>
       </c>
-      <c r="M8">
+      <c r="Q8">
         <v>40408248</v>
       </c>
-      <c r="N8">
+      <c r="R8">
+        <v>40526883</v>
+      </c>
+      <c r="S8">
         <v>40470068</v>
       </c>
-      <c r="O8">
+      <c r="T8">
         <v>40766769</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0.32</v>
-      </c>
       <c r="U8">
-        <v>0.35</v>
+        <v>40588720</v>
       </c>
       <c r="V8">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1277,16 +1583,16 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>17005597</v>
       </c>
       <c r="AC8">
-        <v>17005597</v>
+        <v>33235792</v>
       </c>
       <c r="AD8">
-        <v>33235792</v>
+        <v>16681935</v>
       </c>
       <c r="AE8">
-        <v>16681935</v>
+        <v>16777568</v>
       </c>
       <c r="AF8">
         <v>16752731</v>
@@ -1295,7 +1601,7 @@
         <v>17009841</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>16853592</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -1307,21 +1613,75 @@
         <v>0</v>
       </c>
       <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0.32</v>
+      </c>
+      <c r="AP8">
+        <v>0.35</v>
+      </c>
+      <c r="AQ8">
+        <v>0.38</v>
+      </c>
+      <c r="AR8">
+        <v>0.38</v>
+      </c>
+      <c r="AS8">
+        <v>0.38</v>
+      </c>
+      <c r="AT8">
+        <v>0.39</v>
+      </c>
+      <c r="AU8">
+        <v>0.37</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
         <v>33</v>
       </c>
-      <c r="AM8">
+      <c r="BC8">
         <v>1457</v>
       </c>
-      <c r="AN8">
+      <c r="BD8">
+        <v>1553</v>
+      </c>
+      <c r="BE8">
         <v>1439</v>
       </c>
-      <c r="AO8">
+      <c r="BF8">
         <v>1457</v>
       </c>
+      <c r="BG8">
+        <v>1512</v>
+      </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:59">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>499167258</v>
@@ -1333,16 +1693,16 @@
         <v>500573858</v>
       </c>
       <c r="E9">
+        <v>500883258</v>
+      </c>
+      <c r="F9">
         <v>505777058</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>501152258</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
-        <v>0</v>
+        <v>503417458</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1351,37 +1711,37 @@
         <v>0</v>
       </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>247810</v>
       </c>
-      <c r="L9">
+      <c r="P9">
         <v>492309</v>
       </c>
-      <c r="M9">
+      <c r="Q9">
         <v>279740</v>
       </c>
-      <c r="N9">
+      <c r="R9">
+        <v>298858</v>
+      </c>
+      <c r="S9">
         <v>299972</v>
       </c>
-      <c r="O9">
+      <c r="T9">
         <v>277762</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
-        <v>0</v>
+        <v>275914</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1402,16 +1762,16 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>104029</v>
       </c>
       <c r="AC9">
-        <v>104029</v>
+        <v>346303</v>
       </c>
       <c r="AD9">
-        <v>346303</v>
+        <v>135192</v>
       </c>
       <c r="AE9">
-        <v>135192</v>
+        <v>155327</v>
       </c>
       <c r="AF9">
         <v>155693</v>
@@ -1420,7 +1780,7 @@
         <v>133173</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>131676</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1432,21 +1792,75 @@
         <v>0</v>
       </c>
       <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
         <v>33</v>
       </c>
-      <c r="AM9">
+      <c r="BC9">
         <v>7</v>
       </c>
-      <c r="AN9">
+      <c r="BD9">
         <v>8</v>
       </c>
-      <c r="AO9">
+      <c r="BE9">
+        <v>8</v>
+      </c>
+      <c r="BF9">
         <v>7</v>
       </c>
+      <c r="BG9">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:59">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>427402419</v>
@@ -1458,16 +1872,16 @@
         <v>429066319</v>
       </c>
       <c r="E10">
+        <v>428601329</v>
+      </c>
+      <c r="F10">
         <v>428735829</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>428884859</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
-        <v>0</v>
+        <v>428976649</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1476,37 +1890,37 @@
         <v>0</v>
       </c>
       <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>199440</v>
       </c>
-      <c r="L10">
+      <c r="P10">
         <v>552501</v>
       </c>
-      <c r="M10">
+      <c r="Q10">
         <v>332710</v>
       </c>
-      <c r="N10">
+      <c r="R10">
+        <v>336137</v>
+      </c>
+      <c r="S10">
         <v>330712</v>
       </c>
-      <c r="O10">
+      <c r="T10">
         <v>336317</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
       <c r="U10">
-        <v>0.01</v>
+        <v>329314</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1527,16 +1941,16 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>81223</v>
       </c>
       <c r="AC10">
-        <v>81223</v>
+        <v>434315</v>
       </c>
       <c r="AD10">
-        <v>434315</v>
+        <v>211685</v>
       </c>
       <c r="AE10">
-        <v>211685</v>
+        <v>214933</v>
       </c>
       <c r="AF10">
         <v>210346</v>
@@ -1545,7 +1959,7 @@
         <v>213953</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>209886</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -1557,21 +1971,75 @@
         <v>0</v>
       </c>
       <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0.01</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
         <v>33</v>
       </c>
-      <c r="AM10">
+      <c r="BC10">
         <v>9</v>
       </c>
-      <c r="AN10">
+      <c r="BD10">
         <v>9</v>
       </c>
-      <c r="AO10">
+      <c r="BE10">
         <v>9</v>
       </c>
+      <c r="BF10">
+        <v>9</v>
+      </c>
+      <c r="BG10">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:59">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>573580635</v>
@@ -1583,16 +2051,16 @@
         <v>574492435</v>
       </c>
       <c r="E11">
+        <v>575693835</v>
+      </c>
+      <c r="F11">
         <v>573866235</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>573769835</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
-        <v>0</v>
+        <v>575415635</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1601,37 +2069,37 @@
         <v>0</v>
       </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>62632</v>
       </c>
-      <c r="L11">
+      <c r="P11">
         <v>377359</v>
       </c>
-      <c r="M11">
+      <c r="Q11">
         <v>162721</v>
       </c>
-      <c r="N11">
+      <c r="R11">
+        <v>160067</v>
+      </c>
+      <c r="S11">
         <v>154718</v>
       </c>
-      <c r="O11">
+      <c r="T11">
         <v>157489</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
       <c r="U11">
-        <v>0</v>
+        <v>150533</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1652,16 +2120,16 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>12833</v>
       </c>
       <c r="AC11">
-        <v>12833</v>
+        <v>315191</v>
       </c>
       <c r="AD11">
-        <v>315191</v>
+        <v>113120</v>
       </c>
       <c r="AE11">
-        <v>113120</v>
+        <v>110645</v>
       </c>
       <c r="AF11">
         <v>104924</v>
@@ -1670,7 +2138,7 @@
         <v>108703</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>99326</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -1682,21 +2150,75 @@
         <v>0</v>
       </c>
       <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
         <v>33</v>
       </c>
-      <c r="AM11">
+      <c r="BC11">
         <v>7</v>
       </c>
-      <c r="AN11">
+      <c r="BD11">
         <v>7</v>
       </c>
-      <c r="AO11">
+      <c r="BE11">
         <v>7</v>
       </c>
+      <c r="BF11">
+        <v>7</v>
+      </c>
+      <c r="BG11">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:59">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>1366604955</v>
@@ -1708,16 +2230,16 @@
         <v>1418863735</v>
       </c>
       <c r="E12">
+        <v>1415150027</v>
+      </c>
+      <c r="F12">
         <v>1407983555</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1404930337</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
-        <v>0</v>
+        <v>1407632552</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1726,46 +2248,46 @@
         <v>0</v>
       </c>
       <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>5789713</v>
       </c>
-      <c r="L12">
+      <c r="P12">
         <v>7372196</v>
       </c>
-      <c r="M12">
+      <c r="Q12">
         <v>5882522</v>
       </c>
-      <c r="N12">
+      <c r="R12">
+        <v>5887645</v>
+      </c>
+      <c r="S12">
         <v>5867176</v>
       </c>
-      <c r="O12">
+      <c r="T12">
         <v>5870568</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0.04</v>
-      </c>
       <c r="U12">
-        <v>0.05</v>
+        <v>5869196</v>
       </c>
       <c r="V12">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1777,16 +2299,16 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1446995</v>
       </c>
       <c r="AC12">
-        <v>1446995</v>
+        <v>2942324</v>
       </c>
       <c r="AD12">
-        <v>2942324</v>
+        <v>1543242</v>
       </c>
       <c r="AE12">
-        <v>1543242</v>
+        <v>1536230</v>
       </c>
       <c r="AF12">
         <v>1532949</v>
@@ -1795,7 +2317,7 @@
         <v>1540339</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1545803</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -1807,21 +2329,75 @@
         <v>0</v>
       </c>
       <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0.04</v>
+      </c>
+      <c r="AP12">
+        <v>0.05</v>
+      </c>
+      <c r="AQ12">
+        <v>0.04</v>
+      </c>
+      <c r="AR12">
+        <v>0.04</v>
+      </c>
+      <c r="AS12">
+        <v>0.04</v>
+      </c>
+      <c r="AT12">
+        <v>0.04</v>
+      </c>
+      <c r="AU12">
+        <v>0.04</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
         <v>33</v>
       </c>
-      <c r="AM12">
+      <c r="BC12">
         <v>101</v>
       </c>
-      <c r="AN12">
+      <c r="BD12">
+        <v>102</v>
+      </c>
+      <c r="BE12">
         <v>101</v>
       </c>
-      <c r="AO12">
+      <c r="BF12">
         <v>102</v>
       </c>
+      <c r="BG12">
+        <v>104</v>
+      </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:59">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>735870172</v>
@@ -1833,16 +2409,16 @@
         <v>742704982</v>
       </c>
       <c r="E13">
+        <v>739419603</v>
+      </c>
+      <c r="F13">
         <v>740809522</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>740273636</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
-        <v>0</v>
+        <v>739517786</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1851,46 +2427,46 @@
         <v>0</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>3381650</v>
       </c>
-      <c r="L13">
+      <c r="P13">
         <v>5249861</v>
       </c>
-      <c r="M13">
+      <c r="Q13">
         <v>3582032</v>
       </c>
-      <c r="N13">
+      <c r="R13">
+        <v>3583333</v>
+      </c>
+      <c r="S13">
         <v>3581371</v>
       </c>
-      <c r="O13">
+      <c r="T13">
         <v>3581804</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0.04</v>
-      </c>
       <c r="U13">
-        <v>0.06</v>
+        <v>3574514</v>
       </c>
       <c r="V13">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1902,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1659152</v>
       </c>
       <c r="AC13">
-        <v>1659152</v>
+        <v>3527063</v>
       </c>
       <c r="AD13">
-        <v>3527063</v>
+        <v>1851517</v>
       </c>
       <c r="AE13">
-        <v>1851517</v>
+        <v>1858697</v>
       </c>
       <c r="AF13">
         <v>1850088</v>
@@ -1920,7 +2496,7 @@
         <v>1852747</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1847956</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -1932,21 +2508,75 @@
         <v>0</v>
       </c>
       <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0.04</v>
+      </c>
+      <c r="AP13">
+        <v>0.06</v>
+      </c>
+      <c r="AQ13">
+        <v>0.04</v>
+      </c>
+      <c r="AR13">
+        <v>0.04</v>
+      </c>
+      <c r="AS13">
+        <v>0.04</v>
+      </c>
+      <c r="AT13">
+        <v>0.04</v>
+      </c>
+      <c r="AU13">
+        <v>0.04</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
         <v>33</v>
       </c>
-      <c r="AM13">
+      <c r="BC13">
         <v>94</v>
       </c>
-      <c r="AN13">
+      <c r="BD13">
+        <v>95</v>
+      </c>
+      <c r="BE13">
         <v>93</v>
       </c>
-      <c r="AO13">
+      <c r="BF13">
         <v>94</v>
       </c>
+      <c r="BG13">
+        <v>94</v>
+      </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:59">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>482707918</v>
@@ -1958,16 +2588,16 @@
         <v>484880518</v>
       </c>
       <c r="E14">
+        <v>482150521</v>
+      </c>
+      <c r="F14">
         <v>484248118</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>484906526</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
-        <v>0</v>
+        <v>486188137</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1976,46 +2606,46 @@
         <v>0</v>
       </c>
       <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>567584</v>
       </c>
-      <c r="L14">
+      <c r="P14">
         <v>878375</v>
       </c>
-      <c r="M14">
+      <c r="Q14">
         <v>640773</v>
       </c>
-      <c r="N14">
+      <c r="R14">
+        <v>631645</v>
+      </c>
+      <c r="S14">
         <v>627681</v>
       </c>
-      <c r="O14">
+      <c r="T14">
         <v>636780</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0.01</v>
-      </c>
       <c r="U14">
-        <v>0.01</v>
+        <v>625396</v>
       </c>
       <c r="V14">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -2027,16 +2657,16 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>207558</v>
       </c>
       <c r="AC14">
-        <v>207558</v>
+        <v>517358</v>
       </c>
       <c r="AD14">
-        <v>517358</v>
+        <v>280730</v>
       </c>
       <c r="AE14">
-        <v>280730</v>
+        <v>272180</v>
       </c>
       <c r="AF14">
         <v>269946</v>
@@ -2045,7 +2675,7 @@
         <v>277297</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>265850</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -2057,21 +2687,75 @@
         <v>0</v>
       </c>
       <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0.01</v>
+      </c>
+      <c r="AP14">
+        <v>0.01</v>
+      </c>
+      <c r="AQ14">
+        <v>0.01</v>
+      </c>
+      <c r="AR14">
+        <v>0.01</v>
+      </c>
+      <c r="AS14">
+        <v>0.01</v>
+      </c>
+      <c r="AT14">
+        <v>0.01</v>
+      </c>
+      <c r="AU14">
+        <v>0.01</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
         <v>33</v>
       </c>
-      <c r="AM14">
+      <c r="BC14">
         <v>14</v>
       </c>
-      <c r="AN14">
+      <c r="BD14">
         <v>14</v>
       </c>
-      <c r="AO14">
+      <c r="BE14">
         <v>14</v>
       </c>
+      <c r="BF14">
+        <v>14</v>
+      </c>
+      <c r="BG14">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:59">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>453505316</v>
@@ -2083,16 +2767,16 @@
         <v>454098716</v>
       </c>
       <c r="E15">
+        <v>455068903</v>
+      </c>
+      <c r="F15">
         <v>453859316</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>453423903</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
-        <v>0</v>
+        <v>454500708</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2101,37 +2785,37 @@
         <v>0</v>
       </c>
       <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>100072</v>
       </c>
-      <c r="L15">
+      <c r="P15">
         <v>300076</v>
       </c>
-      <c r="M15">
+      <c r="Q15">
         <v>150750</v>
       </c>
-      <c r="N15">
+      <c r="R15">
+        <v>152779</v>
+      </c>
+      <c r="S15">
         <v>152222</v>
       </c>
-      <c r="O15">
+      <c r="T15">
         <v>153968</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
       <c r="U15">
-        <v>0</v>
+        <v>151669</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2152,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>32367</v>
       </c>
       <c r="AC15">
-        <v>32367</v>
+        <v>231993</v>
       </c>
       <c r="AD15">
-        <v>231993</v>
+        <v>78483</v>
       </c>
       <c r="AE15">
-        <v>78483</v>
+        <v>83369</v>
       </c>
       <c r="AF15">
         <v>81535</v>
@@ -2170,7 +2854,7 @@
         <v>83983</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>82462</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -2182,21 +2866,75 @@
         <v>0</v>
       </c>
       <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
         <v>33</v>
       </c>
-      <c r="AM15">
+      <c r="BC15">
         <v>6</v>
       </c>
-      <c r="AN15">
+      <c r="BD15">
         <v>7</v>
       </c>
-      <c r="AO15">
+      <c r="BE15">
         <v>7</v>
       </c>
+      <c r="BF15">
+        <v>7</v>
+      </c>
+      <c r="BG15">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:59">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>94668</v>
@@ -2208,16 +2946,16 @@
         <v>96268</v>
       </c>
       <c r="E16">
+        <v>95068</v>
+      </c>
+      <c r="F16">
         <v>94868</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>94668</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
-        <v>0</v>
+        <v>94268</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2226,102 +2964,156 @@
         <v>0</v>
       </c>
       <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>700</v>
       </c>
-      <c r="L16">
+      <c r="P16">
         <v>695</v>
       </c>
-      <c r="M16">
+      <c r="Q16">
         <v>698</v>
       </c>
-      <c r="N16">
+      <c r="R16">
+        <v>697</v>
+      </c>
+      <c r="S16">
         <v>700</v>
       </c>
-      <c r="O16">
+      <c r="T16">
         <v>699</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
+      <c r="U16">
+        <v>697</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
         <v>0.07000000000000001</v>
       </c>
-      <c r="U16">
+      <c r="AP16">
         <v>0.07000000000000001</v>
       </c>
-      <c r="V16">
+      <c r="AQ16">
         <v>0.07000000000000001</v>
       </c>
-      <c r="W16">
+      <c r="AR16">
         <v>0.07000000000000001</v>
       </c>
-      <c r="X16">
+      <c r="AS16">
         <v>0.07000000000000001</v>
       </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
+      <c r="AT16">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AU16">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:59">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>1893059268</v>
@@ -2333,16 +3125,16 @@
         <v>2082742068</v>
       </c>
       <c r="E17">
+        <v>2066071468</v>
+      </c>
+      <c r="F17">
         <v>2063423468</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2061669068</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
-        <v>0</v>
+        <v>2063006868</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2351,46 +3143,46 @@
         <v>0</v>
       </c>
       <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>58208701</v>
       </c>
-      <c r="L17">
+      <c r="P17">
         <v>84191163</v>
       </c>
-      <c r="M17">
+      <c r="Q17">
         <v>58775629</v>
       </c>
-      <c r="N17">
+      <c r="R17">
+        <v>58775937</v>
+      </c>
+      <c r="S17">
         <v>58775599</v>
       </c>
-      <c r="O17">
+      <c r="T17">
         <v>58773547</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0.3</v>
-      </c>
       <c r="U17">
-        <v>0.38</v>
+        <v>58775435</v>
       </c>
       <c r="V17">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2402,16 +3194,16 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>24534275</v>
       </c>
       <c r="AC17">
-        <v>24534275</v>
+        <v>49945989</v>
       </c>
       <c r="AD17">
-        <v>49945989</v>
+        <v>25100803</v>
       </c>
       <c r="AE17">
-        <v>25100803</v>
+        <v>25101120</v>
       </c>
       <c r="AF17">
         <v>25100755</v>
@@ -2420,7 +3212,7 @@
         <v>25098758</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>25100657</v>
       </c>
       <c r="AI17">
         <v>0</v>
@@ -2432,21 +3224,75 @@
         <v>0</v>
       </c>
       <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0.3</v>
+      </c>
+      <c r="AP17">
+        <v>0.38</v>
+      </c>
+      <c r="AQ17">
+        <v>0.28</v>
+      </c>
+      <c r="AR17">
+        <v>0.28</v>
+      </c>
+      <c r="AS17">
+        <v>0.28</v>
+      </c>
+      <c r="AT17">
+        <v>0.28</v>
+      </c>
+      <c r="AU17">
+        <v>0.28</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
         <v>33</v>
       </c>
-      <c r="AM17">
+      <c r="BC17">
         <v>1028</v>
       </c>
-      <c r="AN17">
+      <c r="BD17">
         <v>1028</v>
       </c>
-      <c r="AO17">
+      <c r="BE17">
         <v>1028</v>
       </c>
+      <c r="BF17">
+        <v>1028</v>
+      </c>
+      <c r="BG17">
+        <v>1028</v>
+      </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:59">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>1994579294</v>
@@ -2458,16 +3304,16 @@
         <v>2119110294</v>
       </c>
       <c r="E18">
+        <v>2104180875</v>
+      </c>
+      <c r="F18">
         <v>2072157894</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2095524266</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
-        <v>0</v>
+        <v>2072925891</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2476,46 +3322,46 @@
         <v>0</v>
       </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>54118655</v>
       </c>
-      <c r="L18">
+      <c r="P18">
         <v>70525028</v>
       </c>
-      <c r="M18">
+      <c r="Q18">
         <v>53318736</v>
       </c>
-      <c r="N18">
+      <c r="R18">
+        <v>53340228</v>
+      </c>
+      <c r="S18">
         <v>53307467</v>
       </c>
-      <c r="O18">
+      <c r="T18">
         <v>53312799</v>
       </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0.27</v>
-      </c>
       <c r="U18">
-        <v>0.3</v>
+        <v>53334929</v>
       </c>
       <c r="V18">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2527,16 +3373,16 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>15039495</v>
       </c>
       <c r="AC18">
-        <v>15039495</v>
+        <v>30603798</v>
       </c>
       <c r="AD18">
-        <v>30603798</v>
+        <v>14799719</v>
       </c>
       <c r="AE18">
-        <v>14799719</v>
+        <v>14796004</v>
       </c>
       <c r="AF18">
         <v>14782113</v>
@@ -2545,7 +3391,7 @@
         <v>14794341</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>14792685</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -2557,21 +3403,75 @@
         <v>0</v>
       </c>
       <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0.27</v>
+      </c>
+      <c r="AP18">
+        <v>0.3</v>
+      </c>
+      <c r="AQ18">
+        <v>0.25</v>
+      </c>
+      <c r="AR18">
+        <v>0.25</v>
+      </c>
+      <c r="AS18">
+        <v>0.25</v>
+      </c>
+      <c r="AT18">
+        <v>0.25</v>
+      </c>
+      <c r="AU18">
+        <v>0.25</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
         <v>33</v>
       </c>
-      <c r="AM18">
+      <c r="BC18">
         <v>623</v>
       </c>
-      <c r="AN18">
+      <c r="BD18">
+        <v>620</v>
+      </c>
+      <c r="BE18">
         <v>623</v>
       </c>
-      <c r="AO18">
+      <c r="BF18">
         <v>624</v>
       </c>
+      <c r="BG18">
+        <v>620</v>
+      </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:59">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>255644068</v>
@@ -2583,16 +3483,16 @@
         <v>260223868</v>
       </c>
       <c r="E19">
+        <v>259928268</v>
+      </c>
+      <c r="F19">
         <v>259832868</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>260004068</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
-        <v>0</v>
+        <v>260139268</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2601,46 +3501,46 @@
         <v>0</v>
       </c>
       <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>15616729</v>
       </c>
-      <c r="L19">
+      <c r="P19">
         <v>23887134</v>
       </c>
-      <c r="M19">
+      <c r="Q19">
         <v>15633562</v>
       </c>
-      <c r="N19">
+      <c r="R19">
+        <v>15632437</v>
+      </c>
+      <c r="S19">
         <v>15631560</v>
       </c>
-      <c r="O19">
+      <c r="T19">
         <v>15631441</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0.61</v>
-      </c>
       <c r="U19">
-        <v>0.89</v>
+        <v>15646861</v>
       </c>
       <c r="V19">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2652,16 +3552,16 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>7778393</v>
       </c>
       <c r="AC19">
-        <v>7778393</v>
+        <v>15870002</v>
       </c>
       <c r="AD19">
-        <v>15870002</v>
+        <v>7793192</v>
       </c>
       <c r="AE19">
-        <v>7793192</v>
+        <v>7792241</v>
       </c>
       <c r="AF19">
         <v>7791747</v>
@@ -2670,7 +3570,7 @@
         <v>7791207</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>7805318</v>
       </c>
       <c r="AI19">
         <v>0</v>
@@ -2682,21 +3582,75 @@
         <v>0</v>
       </c>
       <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0.61</v>
+      </c>
+      <c r="AP19">
+        <v>0.89</v>
+      </c>
+      <c r="AQ19">
+        <v>0.6</v>
+      </c>
+      <c r="AR19">
+        <v>0.6</v>
+      </c>
+      <c r="AS19">
+        <v>0.6</v>
+      </c>
+      <c r="AT19">
+        <v>0.6</v>
+      </c>
+      <c r="AU19">
+        <v>0.6</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
         <v>33</v>
       </c>
-      <c r="AM19">
+      <c r="BC19">
         <v>320</v>
       </c>
-      <c r="AN19">
+      <c r="BD19">
         <v>320</v>
       </c>
-      <c r="AO19">
+      <c r="BE19">
         <v>320</v>
       </c>
+      <c r="BF19">
+        <v>320</v>
+      </c>
+      <c r="BG19">
+        <v>320</v>
+      </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:59">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>2158783268</v>
@@ -2708,16 +3662,16 @@
         <v>2418436468</v>
       </c>
       <c r="E20">
+        <v>2403592068</v>
+      </c>
+      <c r="F20">
         <v>2395215468</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2392474468</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
-        <v>0</v>
+        <v>2394299868</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2726,46 +3680,46 @@
         <v>0</v>
       </c>
       <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
         <v>44338229</v>
       </c>
-      <c r="L20">
+      <c r="P20">
         <v>55113391</v>
       </c>
-      <c r="M20">
+      <c r="Q20">
         <v>44135654</v>
       </c>
-      <c r="N20">
+      <c r="R20">
+        <v>44136244</v>
+      </c>
+      <c r="S20">
         <v>44132281</v>
       </c>
-      <c r="O20">
+      <c r="T20">
         <v>44000384</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0.2</v>
-      </c>
       <c r="U20">
-        <v>0.23</v>
+        <v>44124654</v>
       </c>
       <c r="V20">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2777,16 +3731,16 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>8985039</v>
       </c>
       <c r="AC20">
-        <v>8985039</v>
+        <v>18572748</v>
       </c>
       <c r="AD20">
-        <v>18572748</v>
+        <v>8974310</v>
       </c>
       <c r="AE20">
-        <v>8974310</v>
+        <v>8974968</v>
       </c>
       <c r="AF20">
         <v>8965473</v>
@@ -2795,7 +3749,7 @@
         <v>8939147</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>8963367</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -2807,21 +3761,75 @@
         <v>0</v>
       </c>
       <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0.2</v>
+      </c>
+      <c r="AP20">
+        <v>0.23</v>
+      </c>
+      <c r="AQ20">
+        <v>0.18</v>
+      </c>
+      <c r="AR20">
+        <v>0.18</v>
+      </c>
+      <c r="AS20">
+        <v>0.18</v>
+      </c>
+      <c r="AT20">
+        <v>0.18</v>
+      </c>
+      <c r="AU20">
+        <v>0.18</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+      <c r="BB20">
         <v>33</v>
       </c>
-      <c r="AM20">
+      <c r="BC20">
         <v>561</v>
       </c>
-      <c r="AN20">
+      <c r="BD20">
+        <v>558</v>
+      </c>
+      <c r="BE20">
         <v>559</v>
       </c>
-      <c r="AO20">
+      <c r="BF20">
         <v>559</v>
       </c>
+      <c r="BG20">
+        <v>561</v>
+      </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:59">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>1749973688</v>
@@ -2833,16 +3841,16 @@
         <v>1794122688</v>
       </c>
       <c r="E21">
+        <v>1770879888</v>
+      </c>
+      <c r="F21">
         <v>1775206488</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1773103288</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
-        <v>0</v>
+        <v>1772194488</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2851,46 +3859,46 @@
         <v>0</v>
       </c>
       <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>19346393</v>
       </c>
-      <c r="L21">
+      <c r="P21">
         <v>23373129</v>
       </c>
-      <c r="M21">
+      <c r="Q21">
         <v>19339611</v>
       </c>
-      <c r="N21">
+      <c r="R21">
+        <v>19339209</v>
+      </c>
+      <c r="S21">
         <v>19339306</v>
       </c>
-      <c r="O21">
+      <c r="T21">
         <v>19339410</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0.11</v>
-      </c>
       <c r="U21">
-        <v>0.12</v>
+        <v>19339780</v>
       </c>
       <c r="V21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2902,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>3680220</v>
       </c>
       <c r="AC21">
-        <v>3680220</v>
+        <v>7360051</v>
       </c>
       <c r="AD21">
-        <v>7360051</v>
+        <v>3674356</v>
       </c>
       <c r="AE21">
-        <v>3674356</v>
+        <v>3674249</v>
       </c>
       <c r="AF21">
         <v>3674403</v>
@@ -2920,7 +3928,7 @@
         <v>3674450</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>3674402</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -2932,21 +3940,75 @@
         <v>0</v>
       </c>
       <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0.11</v>
+      </c>
+      <c r="AP21">
+        <v>0.12</v>
+      </c>
+      <c r="AQ21">
+        <v>0.1</v>
+      </c>
+      <c r="AR21">
+        <v>0.1</v>
+      </c>
+      <c r="AS21">
+        <v>0.1</v>
+      </c>
+      <c r="AT21">
+        <v>0.1</v>
+      </c>
+      <c r="AU21">
+        <v>0.1</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+      <c r="BB21">
         <v>33</v>
       </c>
-      <c r="AM21">
+      <c r="BC21">
         <v>564</v>
       </c>
-      <c r="AN21">
+      <c r="BD21">
+        <v>542</v>
+      </c>
+      <c r="BE21">
         <v>543</v>
       </c>
-      <c r="AO21">
+      <c r="BF21">
         <v>564</v>
       </c>
+      <c r="BG21">
+        <v>564</v>
+      </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:59">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>362737634</v>
@@ -2958,16 +4020,16 @@
         <v>368276955</v>
       </c>
       <c r="E22">
+        <v>362823488</v>
+      </c>
+      <c r="F22">
         <v>363143554</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>362602230</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
-        <v>0</v>
+        <v>364233550</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2976,37 +4038,37 @@
         <v>0</v>
       </c>
       <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
         <v>222045</v>
       </c>
-      <c r="L22">
+      <c r="P22">
         <v>355235</v>
       </c>
-      <c r="M22">
+      <c r="Q22">
         <v>249092</v>
       </c>
-      <c r="N22">
+      <c r="R22">
+        <v>239746</v>
+      </c>
+      <c r="S22">
         <v>233269</v>
       </c>
-      <c r="O22">
+      <c r="T22">
         <v>238645</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
       <c r="U22">
-        <v>0</v>
+        <v>238694</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -3027,16 +4089,16 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>94571</v>
       </c>
       <c r="AC22">
-        <v>94571</v>
+        <v>224688</v>
       </c>
       <c r="AD22">
-        <v>224688</v>
+        <v>111350</v>
       </c>
       <c r="AE22">
-        <v>111350</v>
+        <v>112307</v>
       </c>
       <c r="AF22">
         <v>105712</v>
@@ -3045,7 +4107,7 @@
         <v>111209</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>111262</v>
       </c>
       <c r="AI22">
         <v>0</v>
@@ -3057,21 +4119,75 @@
         <v>0</v>
       </c>
       <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
         <v>33</v>
       </c>
-      <c r="AM22">
+      <c r="BC22">
         <v>5</v>
       </c>
-      <c r="AN22">
+      <c r="BD22">
         <v>5</v>
       </c>
-      <c r="AO22">
+      <c r="BE22">
         <v>5</v>
       </c>
+      <c r="BF22">
+        <v>5</v>
+      </c>
+      <c r="BG22">
+        <v>5</v>
+      </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:59">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B23">
         <v>527466896</v>
@@ -3083,16 +4199,16 @@
         <v>542419304</v>
       </c>
       <c r="E23">
+        <v>546776020</v>
+      </c>
+      <c r="F23">
         <v>542303344</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>544224325</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
       <c r="H23">
-        <v>0</v>
+        <v>543979745</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -3101,46 +4217,46 @@
         <v>0</v>
       </c>
       <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>688029</v>
       </c>
-      <c r="L23">
+      <c r="P23">
         <v>1168757</v>
       </c>
-      <c r="M23">
+      <c r="Q23">
         <v>866007</v>
       </c>
-      <c r="N23">
+      <c r="R23">
+        <v>911149</v>
+      </c>
+      <c r="S23">
         <v>911670</v>
       </c>
-      <c r="O23">
+      <c r="T23">
         <v>939739</v>
       </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0.01</v>
-      </c>
       <c r="U23">
-        <v>0.02</v>
+        <v>925577</v>
       </c>
       <c r="V23">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -3152,16 +4268,16 @@
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>325806</v>
       </c>
       <c r="AC23">
-        <v>325806</v>
+        <v>800667</v>
       </c>
       <c r="AD23">
-        <v>800667</v>
+        <v>346216</v>
       </c>
       <c r="AE23">
-        <v>346216</v>
+        <v>350477</v>
       </c>
       <c r="AF23">
         <v>356276</v>
@@ -3170,7 +4286,7 @@
         <v>354704</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>356088</v>
       </c>
       <c r="AI23">
         <v>0</v>
@@ -3182,21 +4298,75 @@
         <v>0</v>
       </c>
       <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0.01</v>
+      </c>
+      <c r="AP23">
+        <v>0.02</v>
+      </c>
+      <c r="AQ23">
+        <v>0.01</v>
+      </c>
+      <c r="AR23">
+        <v>0.01</v>
+      </c>
+      <c r="AS23">
+        <v>0.01</v>
+      </c>
+      <c r="AT23">
+        <v>0.01</v>
+      </c>
+      <c r="AU23">
+        <v>0.01</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+      <c r="BB23">
         <v>33</v>
       </c>
-      <c r="AM23">
+      <c r="BC23">
         <v>16</v>
       </c>
-      <c r="AN23">
+      <c r="BD23">
         <v>15</v>
       </c>
-      <c r="AO23">
+      <c r="BE23">
         <v>15</v>
       </c>
+      <c r="BF23">
+        <v>15</v>
+      </c>
+      <c r="BG23">
+        <v>15</v>
+      </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:59">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>618993946</v>
@@ -3208,16 +4378,16 @@
         <v>652188567</v>
       </c>
       <c r="E24">
+        <v>645758449</v>
+      </c>
+      <c r="F24">
         <v>647321906</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>651592092</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
       <c r="H24">
-        <v>0</v>
+        <v>640839752</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -3226,46 +4396,46 @@
         <v>0</v>
       </c>
       <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
         <v>2880743</v>
       </c>
-      <c r="L24">
+      <c r="P24">
         <v>4129322</v>
       </c>
-      <c r="M24">
+      <c r="Q24">
         <v>2990664</v>
       </c>
-      <c r="N24">
+      <c r="R24">
+        <v>2987512</v>
+      </c>
+      <c r="S24">
         <v>3002376</v>
       </c>
-      <c r="O24">
+      <c r="T24">
         <v>2993875</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0.04</v>
-      </c>
       <c r="U24">
-        <v>0.06</v>
+        <v>2989795</v>
       </c>
       <c r="V24">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -3277,16 +4447,16 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1178218</v>
       </c>
       <c r="AC24">
-        <v>1178218</v>
+        <v>2426963</v>
       </c>
       <c r="AD24">
-        <v>2426963</v>
+        <v>1286415</v>
       </c>
       <c r="AE24">
-        <v>1286415</v>
+        <v>1294298</v>
       </c>
       <c r="AF24">
         <v>1295973</v>
@@ -3295,7 +4465,7 @@
         <v>1288272</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>1293356</v>
       </c>
       <c r="AI24">
         <v>0</v>
@@ -3307,21 +4477,75 @@
         <v>0</v>
       </c>
       <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0.04</v>
+      </c>
+      <c r="AP24">
+        <v>0.06</v>
+      </c>
+      <c r="AQ24">
+        <v>0.04</v>
+      </c>
+      <c r="AR24">
+        <v>0.04</v>
+      </c>
+      <c r="AS24">
+        <v>0.04</v>
+      </c>
+      <c r="AT24">
+        <v>0.04</v>
+      </c>
+      <c r="AU24">
+        <v>0.04</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+      <c r="BB24">
         <v>33</v>
       </c>
-      <c r="AM24">
+      <c r="BC24">
         <v>81</v>
       </c>
-      <c r="AN24">
+      <c r="BD24">
+        <v>83</v>
+      </c>
+      <c r="BE24">
         <v>82</v>
       </c>
-      <c r="AO24">
+      <c r="BF24">
         <v>81</v>
       </c>
+      <c r="BG24">
+        <v>81</v>
+      </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:59">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <v>457968444</v>
@@ -3333,16 +4557,16 @@
         <v>459805804</v>
       </c>
       <c r="E25">
+        <v>458661424</v>
+      </c>
+      <c r="F25">
         <v>460727734</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>456910934</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
       <c r="H25">
-        <v>0</v>
+        <v>454532244</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -3351,37 +4575,37 @@
         <v>0</v>
       </c>
       <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>84591</v>
       </c>
-      <c r="L25">
+      <c r="P25">
         <v>139940</v>
       </c>
-      <c r="M25">
+      <c r="Q25">
         <v>127511</v>
       </c>
-      <c r="N25">
+      <c r="R25">
+        <v>129184</v>
+      </c>
+      <c r="S25">
         <v>130250</v>
       </c>
-      <c r="O25">
+      <c r="T25">
         <v>126697</v>
       </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
       <c r="U25">
-        <v>0</v>
+        <v>129474</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -3402,16 +4626,16 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>24327</v>
       </c>
       <c r="AC25">
-        <v>24327</v>
+        <v>79754</v>
       </c>
       <c r="AD25">
-        <v>79754</v>
+        <v>66887</v>
       </c>
       <c r="AE25">
-        <v>66887</v>
+        <v>68689</v>
       </c>
       <c r="AF25">
         <v>69499</v>
@@ -3420,7 +4644,7 @@
         <v>66513</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>68625</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -3432,21 +4656,75 @@
         <v>0</v>
       </c>
       <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+      <c r="BB25">
         <v>33</v>
       </c>
-      <c r="AM25">
+      <c r="BC25">
         <v>7</v>
       </c>
-      <c r="AN25">
+      <c r="BD25">
         <v>7</v>
       </c>
-      <c r="AO25">
+      <c r="BE25">
         <v>7</v>
       </c>
+      <c r="BF25">
+        <v>7</v>
+      </c>
+      <c r="BG25">
+        <v>7</v>
+      </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:59">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <v>796176068</v>
@@ -3458,16 +4736,16 @@
         <v>798415868</v>
       </c>
       <c r="E26">
+        <v>797901468</v>
+      </c>
+      <c r="F26">
         <v>798118468</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>797158468</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
       <c r="H26">
-        <v>0</v>
+        <v>797091868</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3476,46 +4754,46 @@
         <v>0</v>
       </c>
       <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
         <v>16808440</v>
       </c>
-      <c r="L26">
+      <c r="P26">
         <v>25245997</v>
       </c>
-      <c r="M26">
+      <c r="Q26">
         <v>16845223</v>
       </c>
-      <c r="N26">
+      <c r="R26">
+        <v>16849962</v>
+      </c>
+      <c r="S26">
         <v>16849242</v>
       </c>
-      <c r="O26">
+      <c r="T26">
         <v>16842294</v>
       </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0.21</v>
-      </c>
       <c r="U26">
-        <v>0.31</v>
+        <v>16848846</v>
       </c>
       <c r="V26">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -3527,16 +4805,16 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>8378354</v>
       </c>
       <c r="AC26">
-        <v>8378354</v>
+        <v>16809421</v>
       </c>
       <c r="AD26">
-        <v>16809421</v>
+        <v>8415653</v>
       </c>
       <c r="AE26">
-        <v>8415653</v>
+        <v>8419537</v>
       </c>
       <c r="AF26">
         <v>8419241</v>
@@ -3545,7 +4823,7 @@
         <v>8413038</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>8419502</v>
       </c>
       <c r="AI26">
         <v>0</v>
@@ -3557,21 +4835,75 @@
         <v>0</v>
       </c>
       <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0.21</v>
+      </c>
+      <c r="AP26">
+        <v>0.31</v>
+      </c>
+      <c r="AQ26">
+        <v>0.21</v>
+      </c>
+      <c r="AR26">
+        <v>0.21</v>
+      </c>
+      <c r="AS26">
+        <v>0.21</v>
+      </c>
+      <c r="AT26">
+        <v>0.21</v>
+      </c>
+      <c r="AU26">
+        <v>0.21</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
         <v>33</v>
       </c>
-      <c r="AM26">
+      <c r="BC26">
         <v>355</v>
       </c>
-      <c r="AN26">
+      <c r="BD26">
         <v>355</v>
       </c>
-      <c r="AO26">
+      <c r="BE26">
+        <v>355</v>
+      </c>
+      <c r="BF26">
         <v>354</v>
       </c>
+      <c r="BG26">
+        <v>355</v>
+      </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:59">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <v>506705</v>
@@ -3583,16 +4915,16 @@
         <v>511373</v>
       </c>
       <c r="E27">
+        <v>509706</v>
+      </c>
+      <c r="F27">
         <v>505996</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>507927</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
       <c r="H27">
-        <v>0</v>
+        <v>506395</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3601,102 +4933,156 @@
         <v>0</v>
       </c>
       <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
         <v>6580</v>
       </c>
-      <c r="L27">
+      <c r="P27">
         <v>12070</v>
       </c>
-      <c r="M27">
+      <c r="Q27">
         <v>6577</v>
       </c>
-      <c r="N27">
+      <c r="R27">
         <v>6577</v>
       </c>
-      <c r="O27">
+      <c r="S27">
         <v>6577</v>
       </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
       <c r="T27">
+        <v>6577</v>
+      </c>
+      <c r="U27">
+        <v>6579</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>5492</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
         <v>0.12</v>
       </c>
-      <c r="U27">
+      <c r="AP27">
         <v>0.24</v>
       </c>
-      <c r="V27">
+      <c r="AQ27">
         <v>0.12</v>
       </c>
-      <c r="W27">
+      <c r="AR27">
+        <v>0.12</v>
+      </c>
+      <c r="AS27">
         <v>0.13</v>
       </c>
-      <c r="X27">
+      <c r="AT27">
         <v>0.12</v>
       </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>5492</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
+      <c r="AU27">
+        <v>0.13</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:59">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B28">
         <v>365531531</v>
@@ -3708,16 +5094,16 @@
         <v>376412531</v>
       </c>
       <c r="E28">
+        <v>376146956</v>
+      </c>
+      <c r="F28">
         <v>375145131</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>385287528</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
       <c r="H28">
-        <v>0</v>
+        <v>391058928</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3726,37 +5112,37 @@
         <v>0</v>
       </c>
       <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
         <v>188802</v>
       </c>
-      <c r="L28">
+      <c r="P28">
         <v>298974</v>
       </c>
-      <c r="M28">
+      <c r="Q28">
         <v>204601</v>
       </c>
-      <c r="N28">
+      <c r="R28">
+        <v>204152</v>
+      </c>
+      <c r="S28">
         <v>203948</v>
       </c>
-      <c r="O28">
+      <c r="T28">
         <v>207849</v>
       </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
       <c r="U28">
-        <v>0</v>
+        <v>202520</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -3777,16 +5163,16 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>74939</v>
       </c>
       <c r="AC28">
-        <v>74939</v>
+        <v>183315</v>
       </c>
       <c r="AD28">
-        <v>183315</v>
+        <v>90501</v>
       </c>
       <c r="AE28">
-        <v>90501</v>
+        <v>89960</v>
       </c>
       <c r="AF28">
         <v>89585</v>
@@ -3795,7 +5181,7 @@
         <v>91335</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>87391</v>
       </c>
       <c r="AI28">
         <v>0</v>
@@ -3807,21 +5193,75 @@
         <v>0</v>
       </c>
       <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
         <v>33</v>
       </c>
-      <c r="AM28">
+      <c r="BC28">
         <v>4</v>
       </c>
-      <c r="AN28">
+      <c r="BD28">
         <v>4</v>
       </c>
-      <c r="AO28">
+      <c r="BE28">
         <v>4</v>
       </c>
+      <c r="BF28">
+        <v>4</v>
+      </c>
+      <c r="BG28">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:59">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>459436054</v>
@@ -3833,16 +5273,16 @@
         <v>458755994</v>
       </c>
       <c r="E29">
+        <v>458446814</v>
+      </c>
+      <c r="F29">
         <v>459139544</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>460498535</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
       <c r="H29">
-        <v>0</v>
+        <v>458325504</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3851,37 +5291,37 @@
         <v>0</v>
       </c>
       <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
         <v>93609</v>
       </c>
-      <c r="L29">
+      <c r="P29">
         <v>224066</v>
       </c>
-      <c r="M29">
+      <c r="Q29">
         <v>152185</v>
       </c>
-      <c r="N29">
+      <c r="R29">
+        <v>152543</v>
+      </c>
+      <c r="S29">
         <v>152064</v>
       </c>
-      <c r="O29">
+      <c r="T29">
         <v>152198</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
       <c r="U29">
-        <v>0</v>
+        <v>152256</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -3902,16 +5342,16 @@
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>28419</v>
       </c>
       <c r="AC29">
-        <v>28419</v>
+        <v>158940</v>
       </c>
       <c r="AD29">
-        <v>158940</v>
+        <v>86414</v>
       </c>
       <c r="AE29">
-        <v>86414</v>
+        <v>86627</v>
       </c>
       <c r="AF29">
         <v>86425</v>
@@ -3920,7 +5360,7 @@
         <v>86460</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>86458</v>
       </c>
       <c r="AI29">
         <v>0</v>
@@ -3932,21 +5372,75 @@
         <v>0</v>
       </c>
       <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
         <v>33</v>
       </c>
-      <c r="AM29">
+      <c r="BC29">
         <v>6</v>
       </c>
-      <c r="AN29">
+      <c r="BD29">
         <v>6</v>
       </c>
-      <c r="AO29">
+      <c r="BE29">
         <v>6</v>
       </c>
+      <c r="BF29">
+        <v>6</v>
+      </c>
+      <c r="BG29">
+        <v>6</v>
+      </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:59">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>365033258</v>
@@ -3958,16 +5452,16 @@
         <v>388206658</v>
       </c>
       <c r="E30">
+        <v>391022658</v>
+      </c>
+      <c r="F30">
         <v>393406858</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>397525658</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
       <c r="H30">
-        <v>0</v>
+        <v>391524458</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3976,46 +5470,46 @@
         <v>0</v>
       </c>
       <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
         <v>9915526</v>
       </c>
-      <c r="L30">
+      <c r="P30">
         <v>15369251</v>
       </c>
-      <c r="M30">
+      <c r="Q30">
         <v>9990347</v>
       </c>
-      <c r="N30">
+      <c r="R30">
+        <v>9983259</v>
+      </c>
+      <c r="S30">
         <v>9992406</v>
       </c>
-      <c r="O30">
+      <c r="T30">
         <v>9986824</v>
       </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0.27</v>
-      </c>
       <c r="U30">
-        <v>0.4</v>
+        <v>9993467</v>
       </c>
       <c r="V30">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -4027,16 +5521,16 @@
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>4852134</v>
       </c>
       <c r="AC30">
-        <v>4852134</v>
+        <v>10158628</v>
       </c>
       <c r="AD30">
-        <v>10158628</v>
+        <v>4929715</v>
       </c>
       <c r="AE30">
-        <v>4929715</v>
+        <v>4925880</v>
       </c>
       <c r="AF30">
         <v>4933619</v>
@@ -4045,7 +5539,7 @@
         <v>4929640</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>4935181</v>
       </c>
       <c r="AI30">
         <v>0</v>
@@ -4057,21 +5551,75 @@
         <v>0</v>
       </c>
       <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0.27</v>
+      </c>
+      <c r="AP30">
+        <v>0.4</v>
+      </c>
+      <c r="AQ30">
+        <v>0.25</v>
+      </c>
+      <c r="AR30">
+        <v>0.25</v>
+      </c>
+      <c r="AS30">
+        <v>0.25</v>
+      </c>
+      <c r="AT30">
+        <v>0.25</v>
+      </c>
+      <c r="AU30">
+        <v>0.25</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
         <v>33</v>
       </c>
-      <c r="AM30">
+      <c r="BC30">
         <v>203</v>
       </c>
-      <c r="AN30">
+      <c r="BD30">
+        <v>203</v>
+      </c>
+      <c r="BE30">
         <v>204</v>
       </c>
-      <c r="AO30">
+      <c r="BF30">
         <v>203</v>
       </c>
+      <c r="BG30">
+        <v>204</v>
+      </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:59">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>1412667</v>
@@ -4083,16 +5631,16 @@
         <v>1437429</v>
       </c>
       <c r="E31">
+        <v>1431745</v>
+      </c>
+      <c r="F31">
         <v>1416307</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1417595</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
       <c r="H31">
-        <v>0</v>
+        <v>1430340</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -4101,102 +5649,156 @@
         <v>0</v>
       </c>
       <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
         <v>5171</v>
       </c>
-      <c r="L31">
+      <c r="P31">
         <v>6513</v>
       </c>
-      <c r="M31">
+      <c r="Q31">
         <v>5128</v>
       </c>
-      <c r="N31">
+      <c r="R31">
+        <v>5126</v>
+      </c>
+      <c r="S31">
         <v>5124</v>
       </c>
-      <c r="O31">
+      <c r="T31">
         <v>5127</v>
       </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
+      <c r="U31">
+        <v>5124</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>45</v>
+      </c>
+      <c r="AC31">
+        <v>1390</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
         <v>0.03</v>
       </c>
-      <c r="U31">
+      <c r="AP31">
         <v>0.04</v>
       </c>
-      <c r="V31">
+      <c r="AQ31">
         <v>0.03</v>
       </c>
-      <c r="W31">
+      <c r="AR31">
         <v>0.03</v>
       </c>
-      <c r="X31">
+      <c r="AS31">
         <v>0.03</v>
       </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>45</v>
-      </c>
-      <c r="AD31">
-        <v>1390</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
-      <c r="AM31">
-        <v>0</v>
-      </c>
-      <c r="AN31">
-        <v>0</v>
-      </c>
-      <c r="AO31">
+      <c r="AT31">
+        <v>0.03</v>
+      </c>
+      <c r="AU31">
+        <v>0.03</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>0</v>
+      </c>
+      <c r="BG31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:59">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B32">
         <v>1747171182</v>
@@ -4208,16 +5810,16 @@
         <v>1792942182</v>
       </c>
       <c r="E32">
+        <v>1779105582</v>
+      </c>
+      <c r="F32">
         <v>1776522582</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1772109378</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
       <c r="H32">
-        <v>0</v>
+        <v>1769733398</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -4226,46 +5828,46 @@
         <v>0</v>
       </c>
       <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
         <v>31903183</v>
       </c>
-      <c r="L32">
+      <c r="P32">
         <v>42828984</v>
       </c>
-      <c r="M32">
+      <c r="Q32">
         <v>32185558</v>
       </c>
-      <c r="N32">
+      <c r="R32">
+        <v>32256046</v>
+      </c>
+      <c r="S32">
         <v>32183402</v>
       </c>
-      <c r="O32">
+      <c r="T32">
         <v>32201219</v>
       </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0.18</v>
-      </c>
       <c r="U32">
-        <v>0.22</v>
+        <v>32181652</v>
       </c>
       <c r="V32">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -4277,16 +5879,16 @@
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>9525761</v>
       </c>
       <c r="AC32">
-        <v>9525761</v>
+        <v>19571247</v>
       </c>
       <c r="AD32">
-        <v>19571247</v>
+        <v>9518963</v>
       </c>
       <c r="AE32">
-        <v>9518963</v>
+        <v>9518502</v>
       </c>
       <c r="AF32">
         <v>9519006</v>
@@ -4295,7 +5897,7 @@
         <v>9519088</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>9518865</v>
       </c>
       <c r="AI32">
         <v>0</v>
@@ -4307,25 +5909,79 @@
         <v>0</v>
       </c>
       <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0.18</v>
+      </c>
+      <c r="AP32">
+        <v>0.22</v>
+      </c>
+      <c r="AQ32">
+        <v>0.17</v>
+      </c>
+      <c r="AR32">
+        <v>0.18</v>
+      </c>
+      <c r="AS32">
+        <v>0.18</v>
+      </c>
+      <c r="AT32">
+        <v>0.18</v>
+      </c>
+      <c r="AU32">
+        <v>0.18</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
         <v>33</v>
       </c>
-      <c r="AM32">
+      <c r="BC32">
         <v>414</v>
       </c>
-      <c r="AN32">
+      <c r="BD32">
         <v>414</v>
       </c>
-      <c r="AO32">
+      <c r="BE32">
+        <v>414</v>
+      </c>
+      <c r="BF32">
+        <v>414</v>
+      </c>
+      <c r="BG32">
         <v>414</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AK1"/>
-    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="O1:AA1"/>
+    <mergeCell ref="AB1:AN1"/>
+    <mergeCell ref="AO1:BA1"/>
+    <mergeCell ref="BB1:BG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sniper/tools/results_cpu2006.xlsx
+++ b/sniper/tools/results_cpu2006.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>Execution Time</t>
   </si>
@@ -34,7 +34,13 @@
     <t>Donuts-50</t>
   </si>
   <si>
+    <t>Donuts-63</t>
+  </si>
+  <si>
     <t>Donuts-75</t>
+  </si>
+  <si>
+    <t>Donuts-88</t>
   </si>
   <si>
     <t>Donuts-100</t>
@@ -431,41 +437,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:26">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:26">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -477,649 +493,1039 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="T2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="Y2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>258059468</v>
       </c>
       <c r="C4">
+        <v>260896868</v>
+      </c>
+      <c r="D4">
         <v>259255068</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>259731468</v>
+      </c>
+      <c r="F4">
         <v>260687868</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>15635395</v>
       </c>
-      <c r="F4">
+      <c r="H4">
+        <v>15648333</v>
+      </c>
+      <c r="I4">
         <v>15641027</v>
       </c>
-      <c r="G4">
+      <c r="J4">
+        <v>15634345</v>
+      </c>
+      <c r="K4">
         <v>15639351</v>
       </c>
-      <c r="H4">
+      <c r="L4">
         <v>7797345</v>
       </c>
-      <c r="I4">
+      <c r="M4">
+        <v>7810232</v>
+      </c>
+      <c r="N4">
         <v>7802365</v>
       </c>
-      <c r="J4">
+      <c r="O4">
+        <v>7795811</v>
+      </c>
+      <c r="P4">
         <v>7800294</v>
       </c>
-      <c r="K4">
+      <c r="Q4">
         <v>0.6</v>
       </c>
-      <c r="L4">
+      <c r="R4">
         <v>0.6</v>
       </c>
-      <c r="M4">
+      <c r="S4">
         <v>0.6</v>
       </c>
-      <c r="N4">
+      <c r="T4">
+        <v>0.6</v>
+      </c>
+      <c r="U4">
+        <v>0.6</v>
+      </c>
+      <c r="V4">
         <v>489</v>
       </c>
-      <c r="O4">
+      <c r="W4">
+        <v>390</v>
+      </c>
+      <c r="X4">
         <v>326</v>
       </c>
-      <c r="P4">
+      <c r="Y4">
+        <v>278</v>
+      </c>
+      <c r="Z4">
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1333713405</v>
       </c>
       <c r="C5">
+        <v>1337840605</v>
+      </c>
+      <c r="D5">
         <v>1330682205</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>1332682605</v>
+      </c>
+      <c r="F5">
         <v>1400816805</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>42727363</v>
       </c>
-      <c r="F5">
+      <c r="H5">
+        <v>42732455</v>
+      </c>
+      <c r="I5">
         <v>42710139</v>
       </c>
-      <c r="G5">
+      <c r="J5">
+        <v>42710152</v>
+      </c>
+      <c r="K5">
         <v>42985719</v>
       </c>
-      <c r="H5">
+      <c r="L5">
         <v>17665738</v>
       </c>
-      <c r="I5">
+      <c r="M5">
+        <v>17667413</v>
+      </c>
+      <c r="N5">
         <v>17658613</v>
       </c>
-      <c r="J5">
+      <c r="O5">
+        <v>17657219</v>
+      </c>
+      <c r="P5">
         <v>17632008</v>
       </c>
-      <c r="K5">
+      <c r="Q5">
         <v>0.32</v>
       </c>
-      <c r="L5">
+      <c r="R5">
+        <v>0.31</v>
+      </c>
+      <c r="S5">
         <v>0.32</v>
       </c>
-      <c r="M5">
+      <c r="T5">
+        <v>0.32</v>
+      </c>
+      <c r="U5">
         <v>0.3</v>
       </c>
-      <c r="N5">
+      <c r="V5">
         <v>1863</v>
       </c>
-      <c r="O5">
+      <c r="W5">
+        <v>1377</v>
+      </c>
+      <c r="X5">
         <v>1011</v>
       </c>
-      <c r="P5">
+      <c r="Y5">
+        <v>798</v>
+      </c>
+      <c r="Z5">
         <v>662</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>1260515250</v>
       </c>
       <c r="C6">
+        <v>1255398250</v>
+      </c>
+      <c r="D6">
         <v>1264726450</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>1255329650</v>
+      </c>
+      <c r="F6">
         <v>1046639850</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>40962039</v>
       </c>
-      <c r="F6">
+      <c r="H6">
+        <v>40861252</v>
+      </c>
+      <c r="I6">
         <v>40843968</v>
       </c>
-      <c r="G6">
+      <c r="J6">
+        <v>40880393</v>
+      </c>
+      <c r="K6">
         <v>40676399</v>
       </c>
-      <c r="H6">
+      <c r="L6">
         <v>17239429</v>
       </c>
-      <c r="I6">
+      <c r="M6">
+        <v>17147663</v>
+      </c>
+      <c r="N6">
         <v>17138148</v>
       </c>
-      <c r="J6">
+      <c r="O6">
+        <v>17123093</v>
+      </c>
+      <c r="P6">
         <v>16923844</v>
       </c>
-      <c r="K6">
+      <c r="Q6">
         <v>0.32</v>
       </c>
-      <c r="L6">
+      <c r="R6">
         <v>0.32</v>
       </c>
-      <c r="M6">
+      <c r="S6">
+        <v>0.32</v>
+      </c>
+      <c r="T6">
+        <v>0.32</v>
+      </c>
+      <c r="U6">
         <v>0.38</v>
       </c>
-      <c r="N6">
+      <c r="V6">
         <v>29429</v>
       </c>
-      <c r="O6">
+      <c r="W6">
+        <v>24211</v>
+      </c>
+      <c r="X6">
         <v>19639</v>
       </c>
-      <c r="P6">
+      <c r="Y6">
+        <v>16540</v>
+      </c>
+      <c r="Z6">
         <v>1427</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:26">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2075815268</v>
       </c>
       <c r="C7">
+        <v>2064489868</v>
+      </c>
+      <c r="D7">
         <v>2067025068</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>2064905868</v>
+      </c>
+      <c r="F7">
         <v>2069848268</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>59521121</v>
       </c>
-      <c r="F7">
+      <c r="H7">
+        <v>59231672</v>
+      </c>
+      <c r="I7">
         <v>59059256</v>
       </c>
-      <c r="G7">
+      <c r="J7">
+        <v>58830565</v>
+      </c>
+      <c r="K7">
         <v>58767019</v>
       </c>
-      <c r="H7">
+      <c r="L7">
         <v>25846712</v>
       </c>
-      <c r="I7">
+      <c r="M7">
+        <v>25557271</v>
+      </c>
+      <c r="N7">
         <v>25384859</v>
       </c>
-      <c r="J7">
+      <c r="O7">
+        <v>25156049</v>
+      </c>
+      <c r="P7">
         <v>25086111</v>
       </c>
-      <c r="K7">
+      <c r="Q7">
         <v>0.28</v>
       </c>
-      <c r="L7">
+      <c r="R7">
         <v>0.28</v>
       </c>
-      <c r="M7">
+      <c r="S7">
         <v>0.28</v>
       </c>
-      <c r="N7">
+      <c r="T7">
+        <v>0.28</v>
+      </c>
+      <c r="U7">
+        <v>0.28</v>
+      </c>
+      <c r="V7">
         <v>2160</v>
       </c>
-      <c r="O7">
+      <c r="W7">
+        <v>1685</v>
+      </c>
+      <c r="X7">
         <v>1401</v>
       </c>
-      <c r="P7">
+      <c r="Y7">
+        <v>1063</v>
+      </c>
+      <c r="Z7">
         <v>937</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:26">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>379124658</v>
       </c>
       <c r="C8">
+        <v>389019258</v>
+      </c>
+      <c r="D8">
         <v>393308658</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>401715458</v>
+      </c>
+      <c r="F8">
         <v>399890658</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>10035385</v>
       </c>
-      <c r="F8">
+      <c r="H8">
+        <v>10012884</v>
+      </c>
+      <c r="I8">
         <v>9996766</v>
       </c>
-      <c r="G8">
+      <c r="J8">
+        <v>9982014</v>
+      </c>
+      <c r="K8">
         <v>9962705</v>
       </c>
-      <c r="H8">
+      <c r="L8">
         <v>4971506</v>
       </c>
-      <c r="I8">
+      <c r="M8">
+        <v>4954166</v>
+      </c>
+      <c r="N8">
         <v>4939801</v>
       </c>
-      <c r="J8">
+      <c r="O8">
+        <v>4925319</v>
+      </c>
+      <c r="P8">
         <v>4905245</v>
       </c>
-      <c r="K8">
+      <c r="Q8">
         <v>0.26</v>
       </c>
-      <c r="L8">
+      <c r="R8">
         <v>0.25</v>
       </c>
-      <c r="M8">
+      <c r="S8">
+        <v>0.25</v>
+      </c>
+      <c r="T8">
         <v>0.24</v>
       </c>
-      <c r="N8">
+      <c r="U8">
+        <v>0.24</v>
+      </c>
+      <c r="V8">
         <v>426</v>
       </c>
-      <c r="O8">
+      <c r="W8">
+        <v>318</v>
+      </c>
+      <c r="X8">
         <v>253</v>
       </c>
-      <c r="P8">
+      <c r="Y8">
+        <v>209</v>
+      </c>
+      <c r="Z8">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:26">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>2103519875</v>
       </c>
       <c r="C9">
+        <v>2098049875</v>
+      </c>
+      <c r="D9">
         <v>2087914075</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>2091481875</v>
+      </c>
+      <c r="F9">
         <v>1943766875</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>54099775</v>
       </c>
-      <c r="F9">
+      <c r="H9">
+        <v>53963045</v>
+      </c>
+      <c r="I9">
         <v>53842792</v>
       </c>
-      <c r="G9">
+      <c r="J9">
+        <v>53453166</v>
+      </c>
+      <c r="K9">
         <v>53227554</v>
       </c>
-      <c r="H9">
+      <c r="L9">
         <v>15198900</v>
       </c>
-      <c r="I9">
+      <c r="M9">
+        <v>15125506</v>
+      </c>
+      <c r="N9">
         <v>15096344</v>
       </c>
-      <c r="J9">
+      <c r="O9">
+        <v>14921931</v>
+      </c>
+      <c r="P9">
         <v>14748312</v>
       </c>
-      <c r="K9">
+      <c r="Q9">
         <v>0.25</v>
       </c>
-      <c r="L9">
+      <c r="R9">
         <v>0.25</v>
       </c>
-      <c r="M9">
+      <c r="S9">
+        <v>0.25</v>
+      </c>
+      <c r="T9">
+        <v>0.25</v>
+      </c>
+      <c r="U9">
         <v>0.27</v>
       </c>
-      <c r="N9">
+      <c r="V9">
         <v>1492</v>
       </c>
-      <c r="O9">
+      <c r="W9">
+        <v>1063</v>
+      </c>
+      <c r="X9">
         <v>859</v>
       </c>
-      <c r="P9">
+      <c r="Y9">
+        <v>685</v>
+      </c>
+      <c r="Z9">
         <v>570</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:26">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>798969668</v>
       </c>
       <c r="C10">
+        <v>799815668</v>
+      </c>
+      <c r="D10">
         <v>798296468</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>798344468</v>
+      </c>
+      <c r="F10">
         <v>799452268</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>16878906</v>
       </c>
-      <c r="F10">
+      <c r="H10">
+        <v>16862278</v>
+      </c>
+      <c r="I10">
         <v>16855075</v>
       </c>
-      <c r="G10">
+      <c r="J10">
+        <v>16848979</v>
+      </c>
+      <c r="K10">
         <v>16844291</v>
       </c>
-      <c r="H10">
+      <c r="L10">
         <v>8448980</v>
       </c>
-      <c r="I10">
+      <c r="M10">
+        <v>8432445</v>
+      </c>
+      <c r="N10">
         <v>8425586</v>
       </c>
-      <c r="J10">
+      <c r="O10">
+        <v>8419699</v>
+      </c>
+      <c r="P10">
         <v>8414806</v>
       </c>
-      <c r="K10">
+      <c r="Q10">
         <v>0.21</v>
       </c>
-      <c r="L10">
+      <c r="R10">
         <v>0.21</v>
       </c>
-      <c r="M10">
+      <c r="S10">
         <v>0.21</v>
       </c>
-      <c r="N10">
+      <c r="T10">
+        <v>0.21</v>
+      </c>
+      <c r="U10">
+        <v>0.21</v>
+      </c>
+      <c r="V10">
         <v>586</v>
       </c>
-      <c r="O10">
+      <c r="W10">
+        <v>453</v>
+      </c>
+      <c r="X10">
         <v>369</v>
       </c>
-      <c r="P10">
+      <c r="Y10">
+        <v>312</v>
+      </c>
+      <c r="Z10">
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:26">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>774127688</v>
       </c>
       <c r="C11">
+        <v>770425488</v>
+      </c>
+      <c r="D11">
         <v>767602688</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>767184888</v>
+      </c>
+      <c r="F11">
         <v>768038888</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>16721635</v>
       </c>
-      <c r="F11">
+      <c r="H11">
+        <v>16475753</v>
+      </c>
+      <c r="I11">
         <v>16196522</v>
       </c>
-      <c r="G11">
+      <c r="J11">
+        <v>15972285</v>
+      </c>
+      <c r="K11">
         <v>15683513</v>
       </c>
-      <c r="H11">
+      <c r="L11">
         <v>7061838</v>
       </c>
-      <c r="I11">
+      <c r="M11">
+        <v>6836615</v>
+      </c>
+      <c r="N11">
         <v>6579163</v>
       </c>
-      <c r="J11">
+      <c r="O11">
+        <v>6357307</v>
+      </c>
+      <c r="P11">
         <v>6050721</v>
       </c>
-      <c r="K11">
+      <c r="Q11">
         <v>0.21</v>
       </c>
-      <c r="L11">
+      <c r="R11">
         <v>0.21</v>
       </c>
-      <c r="M11">
+      <c r="S11">
+        <v>0.21</v>
+      </c>
+      <c r="T11">
         <v>0.2</v>
       </c>
-      <c r="N11">
+      <c r="U11">
+        <v>0.2</v>
+      </c>
+      <c r="V11">
         <v>1700</v>
       </c>
-      <c r="O11">
+      <c r="W11">
+        <v>1235</v>
+      </c>
+      <c r="X11">
         <v>949</v>
       </c>
-      <c r="P11">
+      <c r="Y11">
+        <v>775</v>
+      </c>
+      <c r="Z11">
         <v>636</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:26">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>2394284668</v>
       </c>
       <c r="C12">
+        <v>2403994268</v>
+      </c>
+      <c r="D12">
         <v>2386809068</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>2387739868</v>
+      </c>
+      <c r="F12">
         <v>2363983868</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>44349646</v>
       </c>
-      <c r="F12">
+      <c r="H12">
+        <v>44359504</v>
+      </c>
+      <c r="I12">
         <v>44274293</v>
       </c>
-      <c r="G12">
+      <c r="J12">
+        <v>44198404</v>
+      </c>
+      <c r="K12">
         <v>43987143</v>
       </c>
-      <c r="H12">
+      <c r="L12">
         <v>9151443</v>
       </c>
-      <c r="I12">
+      <c r="M12">
+        <v>9076991</v>
+      </c>
+      <c r="N12">
         <v>9025979</v>
       </c>
-      <c r="J12">
+      <c r="O12">
+        <v>8991838</v>
+      </c>
+      <c r="P12">
         <v>8920671</v>
       </c>
-      <c r="K12">
+      <c r="Q12">
         <v>0.18</v>
       </c>
-      <c r="L12">
+      <c r="R12">
         <v>0.18</v>
       </c>
-      <c r="M12">
+      <c r="S12">
         <v>0.18</v>
       </c>
-      <c r="N12">
+      <c r="T12">
+        <v>0.18</v>
+      </c>
+      <c r="U12">
+        <v>0.18</v>
+      </c>
+      <c r="V12">
         <v>2142</v>
       </c>
-      <c r="O12">
+      <c r="W12">
+        <v>1322</v>
+      </c>
+      <c r="X12">
         <v>948</v>
       </c>
-      <c r="P12">
+      <c r="Y12">
+        <v>731</v>
+      </c>
+      <c r="Z12">
         <v>553</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:26">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>1781454782</v>
       </c>
       <c r="C13">
+        <v>1775056182</v>
+      </c>
+      <c r="D13">
         <v>1786020982</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>1773203982</v>
+      </c>
+      <c r="F13">
         <v>1773781182</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>32028162</v>
       </c>
-      <c r="F13">
+      <c r="H13">
+        <v>32025212</v>
+      </c>
+      <c r="I13">
         <v>32084794</v>
       </c>
-      <c r="G13">
+      <c r="J13">
+        <v>32186322</v>
+      </c>
+      <c r="K13">
         <v>32214808</v>
       </c>
-      <c r="H13">
+      <c r="L13">
         <v>9532948</v>
       </c>
-      <c r="I13">
+      <c r="M13">
+        <v>9519300</v>
+      </c>
+      <c r="N13">
         <v>9516743</v>
       </c>
-      <c r="J13">
+      <c r="O13">
+        <v>9506862</v>
+      </c>
+      <c r="P13">
         <v>9503473</v>
       </c>
-      <c r="K13">
+      <c r="Q13">
         <v>0.17</v>
       </c>
-      <c r="L13">
+      <c r="R13">
+        <v>0.18</v>
+      </c>
+      <c r="S13">
         <v>0.17</v>
       </c>
-      <c r="M13">
+      <c r="T13">
         <v>0.18</v>
       </c>
-      <c r="N13">
+      <c r="U13">
+        <v>0.18</v>
+      </c>
+      <c r="V13">
         <v>851</v>
       </c>
-      <c r="O13">
+      <c r="W13">
+        <v>673</v>
+      </c>
+      <c r="X13">
         <v>522</v>
       </c>
-      <c r="P13">
+      <c r="Y13">
+        <v>423</v>
+      </c>
+      <c r="Z13">
         <v>368</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:26">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1776679688</v>
       </c>
       <c r="C14">
+        <v>1774796888</v>
+      </c>
+      <c r="D14">
         <v>1775867688</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>1776137888</v>
+      </c>
+      <c r="F14">
         <v>1764545688</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>19342456</v>
       </c>
-      <c r="F14">
+      <c r="H14">
+        <v>19341753</v>
+      </c>
+      <c r="I14">
         <v>19336343</v>
       </c>
-      <c r="G14">
+      <c r="J14">
+        <v>19340323</v>
+      </c>
+      <c r="K14">
         <v>19347489</v>
       </c>
-      <c r="H14">
+      <c r="L14">
         <v>3676226</v>
       </c>
-      <c r="I14">
+      <c r="M14">
+        <v>3674672</v>
+      </c>
+      <c r="N14">
         <v>3670038</v>
       </c>
-      <c r="J14">
+      <c r="O14">
+        <v>3674095</v>
+      </c>
+      <c r="P14">
         <v>3680940</v>
       </c>
-      <c r="K14">
+      <c r="Q14">
         <v>0.1</v>
       </c>
-      <c r="L14">
+      <c r="R14">
         <v>0.1</v>
       </c>
-      <c r="M14">
+      <c r="S14">
         <v>0.1</v>
       </c>
-      <c r="N14">
+      <c r="T14">
+        <v>0.1</v>
+      </c>
+      <c r="U14">
+        <v>0.1</v>
+      </c>
+      <c r="V14">
         <v>1186</v>
       </c>
-      <c r="O14">
+      <c r="W14">
+        <v>920</v>
+      </c>
+      <c r="X14">
         <v>713</v>
       </c>
-      <c r="P14">
+      <c r="Y14">
+        <v>640</v>
+      </c>
+      <c r="Z14">
         <v>534</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:26">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>519415670</v>
       </c>
       <c r="C15">
+        <v>519497270</v>
+      </c>
+      <c r="D15">
         <v>518656870</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>518358270</v>
+      </c>
+      <c r="F15">
         <v>518261470</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>3544129</v>
       </c>
-      <c r="F15">
+      <c r="H15">
+        <v>3521531</v>
+      </c>
+      <c r="I15">
         <v>3502809</v>
       </c>
-      <c r="G15">
+      <c r="J15">
+        <v>3505421</v>
+      </c>
+      <c r="K15">
         <v>3490373</v>
       </c>
-      <c r="H15">
+      <c r="L15">
         <v>1704816</v>
       </c>
-      <c r="I15">
+      <c r="M15">
+        <v>1682136</v>
+      </c>
+      <c r="N15">
         <v>1663363</v>
       </c>
-      <c r="J15">
+      <c r="O15">
+        <v>1664450</v>
+      </c>
+      <c r="P15">
         <v>1649968</v>
       </c>
-      <c r="K15">
+      <c r="Q15">
         <v>0.06</v>
       </c>
-      <c r="L15">
+      <c r="R15">
         <v>0.06</v>
       </c>
-      <c r="M15">
+      <c r="S15">
         <v>0.06</v>
       </c>
-      <c r="N15">
+      <c r="T15">
+        <v>0.06</v>
+      </c>
+      <c r="U15">
+        <v>0.06</v>
+      </c>
+      <c r="V15">
         <v>219</v>
       </c>
-      <c r="O15">
+      <c r="W15">
+        <v>150</v>
+      </c>
+      <c r="X15">
         <v>114</v>
       </c>
-      <c r="P15">
+      <c r="Y15">
+        <v>93</v>
+      </c>
+      <c r="Z15">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sniper/tools/results_cpu2006.xlsx
+++ b/sniper/tools/results_cpu2006.xlsx
@@ -19,7 +19,7 @@
     <t>Runtime</t>
   </si>
   <si>
-    <t>Average DRAM Bandwidth Usage</t>
+    <t>Average Bandwidth Usage</t>
   </si>
   <si>
     <t>Memory Access</t>

--- a/sniper/tools/results_cpu2006.xlsx
+++ b/sniper/tools/results_cpu2006.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="19">
+  <si>
+    <t>Runtime</t>
+  </si>
+  <si>
+    <t>Average Bandwidth Usage</t>
+  </si>
   <si>
     <t>Memory Access</t>
   </si>
   <si>
-    <t>Runtime</t>
+    <t>Memory Writes</t>
+  </si>
+  <si>
+    <t>Memory Logs</t>
+  </si>
+  <si>
+    <t>Memory Buffer Overflow</t>
+  </si>
+  <si>
+    <t>Number of Checkpoints</t>
   </si>
   <si>
     <t>donuts-wb1</t>
@@ -413,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:BL5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:64">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -443,191 +458,656 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
+      <c r="T1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:64">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="X2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:64">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:64">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4">
+        <v>259877668</v>
+      </c>
+      <c r="C4">
+        <v>260275868</v>
+      </c>
+      <c r="D4">
+        <v>260326068</v>
+      </c>
+      <c r="E4">
+        <v>260239068</v>
+      </c>
+      <c r="F4">
+        <v>260089468</v>
+      </c>
+      <c r="G4">
+        <v>259716868</v>
+      </c>
+      <c r="H4">
+        <v>260080068</v>
+      </c>
+      <c r="I4">
+        <v>260046068</v>
+      </c>
+      <c r="J4">
+        <v>259957068</v>
+      </c>
+      <c r="K4">
+        <v>0.6</v>
+      </c>
+      <c r="L4">
+        <v>0.6</v>
+      </c>
+      <c r="M4">
+        <v>0.6</v>
+      </c>
+      <c r="N4">
+        <v>0.6</v>
+      </c>
+      <c r="O4">
+        <v>0.6</v>
+      </c>
+      <c r="P4">
+        <v>0.6</v>
+      </c>
+      <c r="Q4">
+        <v>0.6</v>
+      </c>
+      <c r="R4">
+        <v>0.6</v>
+      </c>
+      <c r="S4">
+        <v>0.6</v>
+      </c>
+      <c r="T4">
         <v>15631340</v>
       </c>
-      <c r="C4">
+      <c r="U4">
         <v>15631798</v>
       </c>
-      <c r="D4">
+      <c r="V4">
         <v>15634752</v>
       </c>
-      <c r="E4">
+      <c r="W4">
         <v>15651273</v>
       </c>
-      <c r="F4">
+      <c r="X4">
         <v>15632790</v>
       </c>
-      <c r="G4">
+      <c r="Y4">
         <v>15631618</v>
       </c>
-      <c r="H4">
+      <c r="Z4">
         <v>15632185</v>
       </c>
-      <c r="I4">
+      <c r="AA4">
         <v>15632182</v>
       </c>
-      <c r="J4">
+      <c r="AB4">
         <v>15633168</v>
       </c>
-      <c r="K4">
-        <v>259877668</v>
-      </c>
-      <c r="L4">
-        <v>260275868</v>
-      </c>
-      <c r="M4">
-        <v>260326068</v>
-      </c>
-      <c r="N4">
-        <v>260239068</v>
-      </c>
-      <c r="O4">
-        <v>260089468</v>
-      </c>
-      <c r="P4">
-        <v>259716868</v>
-      </c>
-      <c r="Q4">
-        <v>260080068</v>
-      </c>
-      <c r="R4">
-        <v>260046068</v>
-      </c>
-      <c r="S4">
-        <v>259957068</v>
+      <c r="AC4">
+        <v>7791945</v>
+      </c>
+      <c r="AD4">
+        <v>7791480</v>
+      </c>
+      <c r="AE4">
+        <v>7794262</v>
+      </c>
+      <c r="AF4">
+        <v>7811028</v>
+      </c>
+      <c r="AG4">
+        <v>7792477</v>
+      </c>
+      <c r="AH4">
+        <v>7791849</v>
+      </c>
+      <c r="AI4">
+        <v>7791793</v>
+      </c>
+      <c r="AJ4">
+        <v>7791835</v>
+      </c>
+      <c r="AK4">
+        <v>7792666</v>
+      </c>
+      <c r="AL4">
+        <v>7839395</v>
+      </c>
+      <c r="AM4">
+        <v>7840318</v>
+      </c>
+      <c r="AN4">
+        <v>7840490</v>
+      </c>
+      <c r="AO4">
+        <v>7840245</v>
+      </c>
+      <c r="AP4">
+        <v>7840313</v>
+      </c>
+      <c r="AQ4">
+        <v>7839769</v>
+      </c>
+      <c r="AR4">
+        <v>7840392</v>
+      </c>
+      <c r="AS4">
+        <v>7840347</v>
+      </c>
+      <c r="AT4">
+        <v>7840502</v>
+      </c>
+      <c r="AU4">
+        <v>122490</v>
+      </c>
+      <c r="AV4">
+        <v>122504</v>
+      </c>
+      <c r="AW4">
+        <v>122507</v>
+      </c>
+      <c r="AX4">
+        <v>122503</v>
+      </c>
+      <c r="AY4">
+        <v>122504</v>
+      </c>
+      <c r="AZ4">
+        <v>122496</v>
+      </c>
+      <c r="BA4">
+        <v>122506</v>
+      </c>
+      <c r="BB4">
+        <v>122505</v>
+      </c>
+      <c r="BC4">
+        <v>122507</v>
+      </c>
+      <c r="BD4">
+        <v>320</v>
+      </c>
+      <c r="BE4">
+        <v>320</v>
+      </c>
+      <c r="BF4">
+        <v>320</v>
+      </c>
+      <c r="BG4">
+        <v>321</v>
+      </c>
+      <c r="BH4">
+        <v>320</v>
+      </c>
+      <c r="BI4">
+        <v>320</v>
+      </c>
+      <c r="BJ4">
+        <v>320</v>
+      </c>
+      <c r="BK4">
+        <v>320</v>
+      </c>
+      <c r="BL4">
+        <v>320</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:64">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B5">
+        <v>2408330068</v>
+      </c>
+      <c r="C5">
+        <v>2403930268</v>
+      </c>
+      <c r="D5">
+        <v>2394831468</v>
+      </c>
+      <c r="E5">
+        <v>2367314468</v>
+      </c>
+      <c r="F5">
+        <v>2364194068</v>
+      </c>
+      <c r="G5">
+        <v>2362812268</v>
+      </c>
+      <c r="H5">
+        <v>2370611268</v>
+      </c>
+      <c r="I5">
+        <v>2389238868</v>
+      </c>
+      <c r="J5">
+        <v>2405323268</v>
+      </c>
+      <c r="K5">
+        <v>0.18</v>
+      </c>
+      <c r="L5">
+        <v>0.18</v>
+      </c>
+      <c r="M5">
+        <v>0.18</v>
+      </c>
+      <c r="N5">
+        <v>0.18</v>
+      </c>
+      <c r="O5">
+        <v>0.18</v>
+      </c>
+      <c r="P5">
+        <v>0.18</v>
+      </c>
+      <c r="Q5">
+        <v>0.18</v>
+      </c>
+      <c r="R5">
+        <v>0.18</v>
+      </c>
+      <c r="S5">
+        <v>0.18</v>
+      </c>
+      <c r="T5">
         <v>44130115</v>
       </c>
-      <c r="C5">
+      <c r="U5">
         <v>44115820</v>
       </c>
-      <c r="D5">
+      <c r="V5">
         <v>43990937</v>
       </c>
-      <c r="E5">
+      <c r="W5">
         <v>43990570</v>
       </c>
-      <c r="F5">
+      <c r="X5">
         <v>43988394</v>
       </c>
-      <c r="G5">
+      <c r="Y5">
         <v>43979666</v>
       </c>
-      <c r="H5">
+      <c r="Z5">
         <v>43972867</v>
       </c>
-      <c r="I5">
+      <c r="AA5">
         <v>43966633</v>
       </c>
-      <c r="J5">
+      <c r="AB5">
         <v>44125734</v>
       </c>
-      <c r="K5">
-        <v>2408330068</v>
-      </c>
-      <c r="L5">
-        <v>2403930268</v>
-      </c>
-      <c r="M5">
-        <v>2394831468</v>
-      </c>
-      <c r="N5">
-        <v>2367314468</v>
-      </c>
-      <c r="O5">
-        <v>2364194068</v>
-      </c>
-      <c r="P5">
-        <v>2362812268</v>
-      </c>
-      <c r="Q5">
-        <v>2370611268</v>
-      </c>
-      <c r="R5">
-        <v>2389238868</v>
-      </c>
-      <c r="S5">
-        <v>2405323268</v>
+      <c r="AC5">
+        <v>8958203</v>
+      </c>
+      <c r="AD5">
+        <v>8970527</v>
+      </c>
+      <c r="AE5">
+        <v>8935016</v>
+      </c>
+      <c r="AF5">
+        <v>8922952</v>
+      </c>
+      <c r="AG5">
+        <v>8924999</v>
+      </c>
+      <c r="AH5">
+        <v>8927577</v>
+      </c>
+      <c r="AI5">
+        <v>8924407</v>
+      </c>
+      <c r="AJ5">
+        <v>8930759</v>
+      </c>
+      <c r="AK5">
+        <v>8968247</v>
+      </c>
+      <c r="AL5">
+        <v>35171912</v>
+      </c>
+      <c r="AM5">
+        <v>35145293</v>
+      </c>
+      <c r="AN5">
+        <v>35055921</v>
+      </c>
+      <c r="AO5">
+        <v>35067618</v>
+      </c>
+      <c r="AP5">
+        <v>35063395</v>
+      </c>
+      <c r="AQ5">
+        <v>35052089</v>
+      </c>
+      <c r="AR5">
+        <v>35048460</v>
+      </c>
+      <c r="AS5">
+        <v>35035874</v>
+      </c>
+      <c r="AT5">
+        <v>35157487</v>
+      </c>
+      <c r="AU5">
+        <v>549561</v>
+      </c>
+      <c r="AV5">
+        <v>549145</v>
+      </c>
+      <c r="AW5">
+        <v>547748</v>
+      </c>
+      <c r="AX5">
+        <v>547931</v>
+      </c>
+      <c r="AY5">
+        <v>547865</v>
+      </c>
+      <c r="AZ5">
+        <v>547688</v>
+      </c>
+      <c r="BA5">
+        <v>547632</v>
+      </c>
+      <c r="BB5">
+        <v>547435</v>
+      </c>
+      <c r="BC5">
+        <v>549335</v>
+      </c>
+      <c r="BD5">
+        <v>556</v>
+      </c>
+      <c r="BE5">
+        <v>562</v>
+      </c>
+      <c r="BF5">
+        <v>566</v>
+      </c>
+      <c r="BG5">
+        <v>558</v>
+      </c>
+      <c r="BH5">
+        <v>558</v>
+      </c>
+      <c r="BI5">
+        <v>559</v>
+      </c>
+      <c r="BJ5">
+        <v>558</v>
+      </c>
+      <c r="BK5">
+        <v>560</v>
+      </c>
+      <c r="BL5">
+        <v>562</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="AC1:AK1"/>
+    <mergeCell ref="AL1:AT1"/>
+    <mergeCell ref="AU1:BC1"/>
+    <mergeCell ref="BD1:BL1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sniper/tools/results_cpu2006.xlsx
+++ b/sniper/tools/results_cpu2006.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Runtime</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Number of Checkpoints</t>
   </si>
   <si>
+    <t>baseline-nvm</t>
+  </si>
+  <si>
     <t>donuts-load</t>
   </si>
   <si>
@@ -46,82 +49,88 @@
     <t>Application</t>
   </si>
   <si>
-    <t>libquantum</t>
-  </si>
-  <si>
-    <t>bwaves</t>
-  </si>
-  <si>
-    <t>cactusADM</t>
-  </si>
-  <si>
-    <t>lbm</t>
-  </si>
-  <si>
-    <t>wrf</t>
-  </si>
-  <si>
-    <t>leslie3d</t>
-  </si>
-  <si>
-    <t>sjeng</t>
-  </si>
-  <si>
-    <t>bzip2</t>
-  </si>
-  <si>
-    <t>mcf</t>
-  </si>
-  <si>
-    <t>zeusmp</t>
-  </si>
-  <si>
-    <t>milc</t>
-  </si>
-  <si>
-    <t>astar</t>
-  </si>
-  <si>
-    <t>gobmk</t>
-  </si>
-  <si>
-    <t>perlbench</t>
-  </si>
-  <si>
-    <t>gcc</t>
-  </si>
-  <si>
-    <t>omnetpp</t>
-  </si>
-  <si>
-    <t>gromacs</t>
-  </si>
-  <si>
-    <t>dealII</t>
-  </si>
-  <si>
-    <t>namd</t>
-  </si>
-  <si>
-    <t>calculix</t>
-  </si>
-  <si>
-    <t>gamess</t>
-  </si>
-  <si>
-    <t>h264ref</t>
-  </si>
-  <si>
-    <t>sphinx3</t>
-  </si>
-  <si>
-    <t>povray</t>
-  </si>
-  <si>
-    <t>tonto</t>
-  </si>
-  <si>
-    <t>GemsFDTD</t>
+    <t>perlbench_r</t>
+  </si>
+  <si>
+    <t>gcc_r</t>
+  </si>
+  <si>
+    <t>bwaves_r</t>
+  </si>
+  <si>
+    <t>mcf_r</t>
+  </si>
+  <si>
+    <t>cactuBSSN_r</t>
+  </si>
+  <si>
+    <t>namd_r</t>
+  </si>
+  <si>
+    <t>povray_r</t>
+  </si>
+  <si>
+    <t>lbm_r</t>
+  </si>
+  <si>
+    <t>omnetpp_r</t>
+  </si>
+  <si>
+    <t>wrf_r</t>
+  </si>
+  <si>
+    <t>x264_r</t>
+  </si>
+  <si>
+    <t>blender_r</t>
+  </si>
+  <si>
+    <t>cam4_r</t>
+  </si>
+  <si>
+    <t>deepsjeng_r</t>
+  </si>
+  <si>
+    <t>imagick_r</t>
+  </si>
+  <si>
+    <t>leela_r</t>
+  </si>
+  <si>
+    <t>nab_r</t>
+  </si>
+  <si>
+    <t>exchange2_r</t>
+  </si>
+  <si>
+    <t>fotonik3d_r</t>
+  </si>
+  <si>
+    <t>roms_r</t>
+  </si>
+  <si>
+    <t>xz_r</t>
+  </si>
+  <si>
+    <t>lbm_s</t>
+  </si>
+  <si>
+    <t>wrf_s</t>
+  </si>
+  <si>
+    <t>cam4_s</t>
+  </si>
+  <si>
+    <t>imagick_s</t>
+  </si>
+  <si>
+    <t>nab_s</t>
+  </si>
+  <si>
+    <t>fotonik3d_s</t>
+  </si>
+  <si>
+    <t>roms_s</t>
   </si>
 </sst>
 </file>
@@ -479,44 +488,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:22">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -525,16 +541,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
@@ -543,16 +559,16 @@
         <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>7</v>
@@ -560,1243 +576,1946 @@
       <c r="O2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>259994668</v>
+        <v>661903000</v>
       </c>
       <c r="C4">
-        <v>259934068</v>
+        <v>682920400</v>
       </c>
       <c r="D4">
-        <v>0.6</v>
+        <v>683651000</v>
       </c>
       <c r="E4">
-        <v>0.6</v>
+        <v>0.03</v>
       </c>
       <c r="F4">
-        <v>15632083</v>
+        <v>0.03</v>
       </c>
       <c r="G4">
-        <v>15633744</v>
+        <v>0.03</v>
       </c>
       <c r="H4">
-        <v>7791133</v>
+        <v>2135395</v>
       </c>
       <c r="I4">
-        <v>7793264</v>
+        <v>2245602</v>
       </c>
       <c r="J4">
-        <v>7840950</v>
+        <v>2249335</v>
       </c>
       <c r="K4">
-        <v>7793264</v>
+        <v>914597</v>
       </c>
       <c r="L4">
-        <v>122514</v>
+        <v>1039926</v>
       </c>
       <c r="M4">
-        <v>121769</v>
+        <v>1033906</v>
       </c>
       <c r="N4">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>1205676</v>
+      </c>
+      <c r="P4">
+        <v>1033906</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>18838</v>
+      </c>
+      <c r="S4">
+        <v>16154</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>60</v>
+      </c>
+      <c r="V4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>1339596372</v>
+        <v>812985200</v>
       </c>
       <c r="C5">
-        <v>1333494972</v>
+        <v>827634000</v>
       </c>
       <c r="D5">
+        <v>827845000</v>
+      </c>
+      <c r="E5">
+        <v>0.02</v>
+      </c>
+      <c r="F5">
+        <v>0.02</v>
+      </c>
+      <c r="G5">
+        <v>0.02</v>
+      </c>
+      <c r="H5">
+        <v>1645415</v>
+      </c>
+      <c r="I5">
+        <v>1727207</v>
+      </c>
+      <c r="J5">
+        <v>1748532</v>
+      </c>
+      <c r="K5">
+        <v>720715</v>
+      </c>
+      <c r="L5">
+        <v>789049</v>
+      </c>
+      <c r="M5">
+        <v>802053</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>938158</v>
+      </c>
+      <c r="P5">
+        <v>802053</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>14658</v>
+      </c>
+      <c r="S5">
+        <v>12532</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>51</v>
+      </c>
+      <c r="V5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>5400600</v>
+      </c>
+      <c r="C6">
+        <v>5413400</v>
+      </c>
+      <c r="D6">
+        <v>5395800</v>
+      </c>
+      <c r="E6">
+        <v>0.02</v>
+      </c>
+      <c r="F6">
+        <v>0.02</v>
+      </c>
+      <c r="G6">
+        <v>0.02</v>
+      </c>
+      <c r="H6">
+        <v>14014</v>
+      </c>
+      <c r="I6">
+        <v>14014</v>
+      </c>
+      <c r="J6">
+        <v>13956</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>14014</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>218</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1121082800</v>
+      </c>
+      <c r="C7">
+        <v>1125563000</v>
+      </c>
+      <c r="D7">
+        <v>1135262800</v>
+      </c>
+      <c r="E7">
+        <v>0.17</v>
+      </c>
+      <c r="F7">
+        <v>0.18</v>
+      </c>
+      <c r="G7">
+        <v>0.17</v>
+      </c>
+      <c r="H7">
+        <v>19714844</v>
+      </c>
+      <c r="I7">
+        <v>20297571</v>
+      </c>
+      <c r="J7">
+        <v>20247682</v>
+      </c>
+      <c r="K7">
+        <v>552797</v>
+      </c>
+      <c r="L7">
+        <v>574963</v>
+      </c>
+      <c r="M7">
+        <v>576996</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>19722608</v>
+      </c>
+      <c r="P7">
+        <v>576996</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>308165</v>
+      </c>
+      <c r="S7">
+        <v>9015</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>37</v>
+      </c>
+      <c r="V7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>445041800</v>
+      </c>
+      <c r="C8">
+        <v>575981600</v>
+      </c>
+      <c r="D8">
+        <v>468625800</v>
+      </c>
+      <c r="E8">
+        <v>0.11</v>
+      </c>
+      <c r="F8">
+        <v>0.09</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8">
+        <v>5072326</v>
+      </c>
+      <c r="I8">
+        <v>5419624</v>
+      </c>
+      <c r="J8">
+        <v>5083129</v>
+      </c>
+      <c r="K8">
+        <v>2371675</v>
+      </c>
+      <c r="L8">
+        <v>2368076</v>
+      </c>
+      <c r="M8">
+        <v>2376550</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>3051548</v>
+      </c>
+      <c r="P8">
+        <v>2376550</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>47680</v>
+      </c>
+      <c r="S8">
+        <v>37133</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>100</v>
+      </c>
+      <c r="V8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>362065600</v>
+      </c>
+      <c r="C9">
+        <v>363939400</v>
+      </c>
+      <c r="D9">
+        <v>366531800</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>216802</v>
+      </c>
+      <c r="I9">
+        <v>240977</v>
+      </c>
+      <c r="J9">
+        <v>241284</v>
+      </c>
+      <c r="K9">
+        <v>86188</v>
+      </c>
+      <c r="L9">
+        <v>110307</v>
+      </c>
+      <c r="M9">
+        <v>110577</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>130670</v>
+      </c>
+      <c r="P9">
+        <v>110577</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>2041</v>
+      </c>
+      <c r="S9">
+        <v>1727</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>452871800</v>
+      </c>
+      <c r="C10">
+        <v>451677200</v>
+      </c>
+      <c r="D10">
+        <v>454824600</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>78127</v>
+      </c>
+      <c r="I10">
+        <v>118855</v>
+      </c>
+      <c r="J10">
+        <v>122425</v>
+      </c>
+      <c r="K10">
+        <v>16069</v>
+      </c>
+      <c r="L10">
+        <v>56664</v>
+      </c>
+      <c r="M10">
+        <v>60302</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>62191</v>
+      </c>
+      <c r="P10">
+        <v>60302</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>971</v>
+      </c>
+      <c r="S10">
+        <v>942</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>6</v>
+      </c>
+      <c r="V10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>1917555800</v>
+      </c>
+      <c r="C11">
+        <v>2091818800</v>
+      </c>
+      <c r="D11">
+        <v>2089798800</v>
+      </c>
+      <c r="E11">
         <v>0.31</v>
       </c>
-      <c r="E5">
-        <v>0.32</v>
-      </c>
-      <c r="F5">
-        <v>42719884</v>
-      </c>
-      <c r="G5">
-        <v>42697476</v>
-      </c>
-      <c r="H5">
-        <v>17651918</v>
-      </c>
-      <c r="I5">
-        <v>17637877</v>
-      </c>
-      <c r="J5">
-        <v>25067966</v>
-      </c>
-      <c r="K5">
-        <v>17637877</v>
-      </c>
-      <c r="L5">
-        <v>391686</v>
-      </c>
-      <c r="M5">
-        <v>275591</v>
-      </c>
-      <c r="N5">
-        <v>723</v>
-      </c>
-      <c r="O5">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>1055898250</v>
-      </c>
-      <c r="C6">
-        <v>1077252650</v>
-      </c>
-      <c r="D6">
-        <v>0.37</v>
-      </c>
-      <c r="E6">
-        <v>0.37</v>
-      </c>
-      <c r="F6">
-        <v>39895665</v>
-      </c>
-      <c r="G6">
-        <v>39882396</v>
-      </c>
-      <c r="H6">
-        <v>16163097</v>
-      </c>
-      <c r="I6">
-        <v>16162774</v>
-      </c>
-      <c r="J6">
-        <v>23732568</v>
-      </c>
-      <c r="K6">
-        <v>16162774</v>
-      </c>
-      <c r="L6">
-        <v>370821</v>
-      </c>
-      <c r="M6">
-        <v>252543</v>
-      </c>
-      <c r="N6">
-        <v>1550</v>
-      </c>
-      <c r="O6">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>2069596668</v>
-      </c>
-      <c r="C7">
-        <v>2062282268</v>
-      </c>
-      <c r="D7">
+      <c r="F11">
         <v>0.28</v>
       </c>
-      <c r="E7">
+      <c r="G11">
         <v>0.28</v>
       </c>
-      <c r="F7">
-        <v>58775975</v>
-      </c>
-      <c r="G7">
-        <v>58775838</v>
-      </c>
-      <c r="H7">
-        <v>25101155</v>
-      </c>
-      <c r="I7">
-        <v>25101028</v>
-      </c>
-      <c r="J7">
-        <v>33674820</v>
-      </c>
-      <c r="K7">
-        <v>25101028</v>
-      </c>
-      <c r="L7">
-        <v>526169</v>
-      </c>
-      <c r="M7">
-        <v>392203</v>
-      </c>
-      <c r="N7">
-        <v>1028</v>
-      </c>
-      <c r="O7">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>392283039</v>
-      </c>
-      <c r="C8">
-        <v>395527439</v>
-      </c>
-      <c r="D8">
-        <v>0.25</v>
-      </c>
-      <c r="E8">
-        <v>0.25</v>
-      </c>
-      <c r="F8">
-        <v>10001370</v>
-      </c>
-      <c r="G8">
-        <v>9998142</v>
-      </c>
-      <c r="H8">
-        <v>4943469</v>
-      </c>
-      <c r="I8">
-        <v>4938964</v>
-      </c>
-      <c r="J8">
-        <v>5057901</v>
-      </c>
-      <c r="K8">
-        <v>4938964</v>
-      </c>
-      <c r="L8">
-        <v>79029</v>
-      </c>
-      <c r="M8">
-        <v>77171</v>
-      </c>
-      <c r="N8">
-        <v>204</v>
-      </c>
-      <c r="O8">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>2083215571</v>
-      </c>
-      <c r="C9">
-        <v>2104200371</v>
-      </c>
-      <c r="D9">
-        <v>0.25</v>
-      </c>
-      <c r="E9">
-        <v>0.25</v>
-      </c>
-      <c r="F9">
-        <v>53286983</v>
-      </c>
-      <c r="G9">
-        <v>53303284</v>
-      </c>
-      <c r="H9">
-        <v>14779676</v>
-      </c>
-      <c r="I9">
-        <v>14780550</v>
-      </c>
-      <c r="J9">
-        <v>38507307</v>
-      </c>
-      <c r="K9">
-        <v>14780550</v>
-      </c>
-      <c r="L9">
-        <v>601676</v>
-      </c>
-      <c r="M9">
-        <v>230946</v>
-      </c>
-      <c r="N9">
-        <v>623</v>
-      </c>
-      <c r="O9">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>797893468</v>
-      </c>
-      <c r="C10">
-        <v>797899468</v>
-      </c>
-      <c r="D10">
-        <v>0.21</v>
-      </c>
-      <c r="E10">
-        <v>0.21</v>
-      </c>
-      <c r="F10">
-        <v>16844651</v>
-      </c>
-      <c r="G10">
-        <v>16843651</v>
-      </c>
-      <c r="H10">
-        <v>8414854</v>
-      </c>
-      <c r="I10">
-        <v>8414310</v>
-      </c>
-      <c r="J10">
-        <v>8429797</v>
-      </c>
-      <c r="K10">
-        <v>8414310</v>
-      </c>
-      <c r="L10">
-        <v>131715</v>
-      </c>
-      <c r="M10">
-        <v>131473</v>
-      </c>
-      <c r="N10">
-        <v>355</v>
-      </c>
-      <c r="O10">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>767419288</v>
-      </c>
-      <c r="C11">
-        <v>781862688</v>
-      </c>
-      <c r="D11">
-        <v>0.2</v>
-      </c>
-      <c r="E11">
-        <v>0.2</v>
-      </c>
-      <c r="F11">
-        <v>15686035</v>
-      </c>
-      <c r="G11">
-        <v>15674628</v>
-      </c>
       <c r="H11">
-        <v>6054519</v>
+        <v>59452356</v>
       </c>
       <c r="I11">
-        <v>6056176</v>
+        <v>60051247</v>
       </c>
       <c r="J11">
-        <v>9631516</v>
+        <v>60028729</v>
       </c>
       <c r="K11">
-        <v>6056176</v>
+        <v>25066109</v>
       </c>
       <c r="L11">
-        <v>150492</v>
+        <v>25664695</v>
       </c>
       <c r="M11">
-        <v>94627</v>
+        <v>25642120</v>
       </c>
       <c r="N11">
-        <v>664</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>34386552</v>
+      </c>
+      <c r="P11">
+        <v>25642120</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>537289</v>
+      </c>
+      <c r="S11">
+        <v>400658</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1051</v>
+      </c>
+      <c r="V11">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>2396492868</v>
+        <v>649737600</v>
       </c>
       <c r="C12">
-        <v>2385122268</v>
+        <v>698265000</v>
       </c>
       <c r="D12">
-        <v>0.18</v>
+        <v>699532400</v>
       </c>
       <c r="E12">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="F12">
-        <v>44129171</v>
+        <v>0.01</v>
       </c>
       <c r="G12">
-        <v>44142605</v>
+        <v>0.01</v>
       </c>
       <c r="H12">
-        <v>8970709</v>
+        <v>826488</v>
       </c>
       <c r="I12">
-        <v>8981015</v>
+        <v>1080386</v>
       </c>
       <c r="J12">
-        <v>35158462</v>
+        <v>1060930</v>
       </c>
       <c r="K12">
-        <v>8981015</v>
+        <v>383328</v>
       </c>
       <c r="L12">
-        <v>549350</v>
+        <v>478442</v>
       </c>
       <c r="M12">
-        <v>140328</v>
+        <v>474328</v>
       </c>
       <c r="N12">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>601944</v>
+      </c>
+      <c r="P12">
+        <v>474328</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>9405</v>
+      </c>
+      <c r="S12">
+        <v>7411</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>21</v>
+      </c>
+      <c r="V12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>1776301394</v>
+        <v>589899200</v>
       </c>
       <c r="C13">
-        <v>1771110794</v>
+        <v>637667800</v>
       </c>
       <c r="D13">
-        <v>0.18</v>
+        <v>627369600</v>
       </c>
       <c r="E13">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="F13">
-        <v>32194322</v>
+        <v>0.11</v>
       </c>
       <c r="G13">
-        <v>32186182</v>
+        <v>0.11</v>
       </c>
       <c r="H13">
-        <v>9518265</v>
+        <v>7368805</v>
       </c>
       <c r="I13">
-        <v>9519060</v>
+        <v>7619738</v>
       </c>
       <c r="J13">
-        <v>22676057</v>
+        <v>7488378</v>
       </c>
       <c r="K13">
-        <v>9519060</v>
+        <v>3330850</v>
       </c>
       <c r="L13">
-        <v>354313</v>
+        <v>3449934</v>
       </c>
       <c r="M13">
-        <v>148735</v>
+        <v>3446847</v>
       </c>
       <c r="N13">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>4169804</v>
+      </c>
+      <c r="P13">
+        <v>3446847</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>65153</v>
+      </c>
+      <c r="S13">
+        <v>53856</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>149</v>
+      </c>
+      <c r="V13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>1775281088</v>
+        <v>514847800</v>
       </c>
       <c r="C14">
-        <v>1771110288</v>
+        <v>494457400</v>
       </c>
       <c r="D14">
-        <v>0.1</v>
+        <v>493418000</v>
       </c>
       <c r="E14">
         <v>0.1</v>
       </c>
       <c r="F14">
-        <v>19340056</v>
+        <v>0.1</v>
       </c>
       <c r="G14">
-        <v>19338801</v>
+        <v>0.1</v>
       </c>
       <c r="H14">
-        <v>3674396</v>
+        <v>5507037</v>
       </c>
       <c r="I14">
-        <v>3674339</v>
+        <v>5334348</v>
       </c>
       <c r="J14">
-        <v>15665660</v>
+        <v>5326702</v>
       </c>
       <c r="K14">
-        <v>3674339</v>
+        <v>1848260</v>
       </c>
       <c r="L14">
-        <v>244775</v>
+        <v>1848295</v>
       </c>
       <c r="M14">
-        <v>57411</v>
+        <v>1847393</v>
       </c>
       <c r="N14">
-        <v>566</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>3486053</v>
+      </c>
+      <c r="P14">
+        <v>1847393</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>54469</v>
+      </c>
+      <c r="S14">
+        <v>28865</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>83</v>
+      </c>
+      <c r="V14">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>518246436</v>
+        <v>454215000</v>
       </c>
       <c r="C15">
-        <v>518402744</v>
+        <v>463033200</v>
       </c>
       <c r="D15">
-        <v>0.06</v>
+        <v>450660600</v>
       </c>
       <c r="E15">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F15">
-        <v>3494698</v>
+        <v>0.04</v>
       </c>
       <c r="G15">
-        <v>3501039</v>
+        <v>0.04</v>
       </c>
       <c r="H15">
-        <v>1654856</v>
+        <v>1966153</v>
       </c>
       <c r="I15">
-        <v>1661670</v>
+        <v>1987660</v>
       </c>
       <c r="J15">
-        <v>1839842</v>
+        <v>1994474</v>
       </c>
       <c r="K15">
-        <v>1661670</v>
+        <v>825082</v>
       </c>
       <c r="L15">
-        <v>28747</v>
+        <v>846128</v>
       </c>
       <c r="M15">
-        <v>25963</v>
+        <v>852737</v>
       </c>
       <c r="N15">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>1141532</v>
+      </c>
+      <c r="P15">
+        <v>852737</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>17836</v>
+      </c>
+      <c r="S15">
+        <v>13324</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>36</v>
+      </c>
+      <c r="V15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>740333466</v>
+        <v>609934000</v>
       </c>
       <c r="C16">
-        <v>739185376</v>
+        <v>558063800</v>
       </c>
       <c r="D16">
-        <v>0.04</v>
+        <v>628027200</v>
       </c>
       <c r="E16">
-        <v>0.04</v>
+        <v>0.26</v>
       </c>
       <c r="F16">
-        <v>3574097</v>
+        <v>0.29</v>
       </c>
       <c r="G16">
-        <v>3582302</v>
+        <v>0.25</v>
       </c>
       <c r="H16">
-        <v>1846343</v>
+        <v>16107976</v>
       </c>
       <c r="I16">
-        <v>1854247</v>
+        <v>16183609</v>
       </c>
       <c r="J16">
-        <v>1727754</v>
+        <v>16180841</v>
       </c>
       <c r="K16">
-        <v>1854247</v>
+        <v>7869011</v>
       </c>
       <c r="L16">
-        <v>26996</v>
+        <v>7945332</v>
       </c>
       <c r="M16">
-        <v>28972</v>
+        <v>7943375</v>
       </c>
       <c r="N16">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8238277</v>
+      </c>
+      <c r="P16">
+        <v>7943375</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>128723</v>
+      </c>
+      <c r="S16">
+        <v>124115</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>324</v>
+      </c>
+      <c r="V16">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>644844204</v>
+        <v>999871000</v>
       </c>
       <c r="C17">
-        <v>646776255</v>
+        <v>999899000</v>
       </c>
       <c r="D17">
-        <v>0.04</v>
+        <v>999879000</v>
       </c>
       <c r="E17">
-        <v>0.04</v>
+        <v>0.31</v>
       </c>
       <c r="F17">
-        <v>3004970</v>
+        <v>0.31</v>
       </c>
       <c r="G17">
-        <v>2996902</v>
+        <v>0.31</v>
       </c>
       <c r="H17">
-        <v>1300273</v>
+        <v>31189727</v>
       </c>
       <c r="I17">
-        <v>1298807</v>
+        <v>31219411</v>
       </c>
       <c r="J17">
-        <v>1704697</v>
+        <v>31219106</v>
       </c>
       <c r="K17">
-        <v>1298807</v>
+        <v>15576711</v>
       </c>
       <c r="L17">
-        <v>26636</v>
+        <v>15606395</v>
       </c>
       <c r="M17">
-        <v>20293</v>
+        <v>15606088</v>
       </c>
       <c r="N17">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>15613016</v>
+      </c>
+      <c r="P17">
+        <v>15606088</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>243953</v>
+      </c>
+      <c r="S17">
+        <v>243845</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>635</v>
+      </c>
+      <c r="V17">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>1409486068</v>
+        <v>315201600</v>
       </c>
       <c r="C18">
-        <v>1395975778</v>
+        <v>317487600</v>
       </c>
       <c r="D18">
-        <v>0.04</v>
+        <v>316748800</v>
       </c>
       <c r="E18">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F18">
-        <v>5885666</v>
+        <v>0.05</v>
       </c>
       <c r="G18">
-        <v>5883132</v>
+        <v>0.05</v>
       </c>
       <c r="H18">
-        <v>1548163</v>
+        <v>1811925</v>
       </c>
       <c r="I18">
-        <v>1549413</v>
+        <v>1831184</v>
       </c>
       <c r="J18">
-        <v>4337503</v>
+        <v>1831921</v>
       </c>
       <c r="K18">
-        <v>1549413</v>
+        <v>716397</v>
       </c>
       <c r="L18">
-        <v>67773</v>
+        <v>735349</v>
       </c>
       <c r="M18">
-        <v>24209</v>
+        <v>735206</v>
       </c>
       <c r="N18">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>1095835</v>
+      </c>
+      <c r="P18">
+        <v>735206</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>17122</v>
+      </c>
+      <c r="S18">
+        <v>11487</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>30</v>
+      </c>
+      <c r="V18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>547361534</v>
+        <v>412639200</v>
       </c>
       <c r="C19">
-        <v>545961407</v>
+        <v>412456000</v>
       </c>
       <c r="D19">
-        <v>0.01</v>
+        <v>412382600</v>
       </c>
       <c r="E19">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>924367</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>945661</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>352403</v>
+        <v>179855</v>
       </c>
       <c r="I19">
-        <v>355519</v>
+        <v>220507</v>
       </c>
       <c r="J19">
-        <v>571964</v>
+        <v>220801</v>
       </c>
       <c r="K19">
-        <v>355519</v>
+        <v>67045</v>
       </c>
       <c r="L19">
-        <v>8937</v>
+        <v>109927</v>
       </c>
       <c r="M19">
-        <v>5554</v>
+        <v>109927</v>
       </c>
       <c r="N19">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>110580</v>
+      </c>
+      <c r="P19">
+        <v>109927</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1727</v>
+      </c>
+      <c r="S19">
+        <v>1717</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>6</v>
+      </c>
+      <c r="V19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>482446471</v>
+        <v>484606200</v>
       </c>
       <c r="C20">
-        <v>478836471</v>
+        <v>490627200</v>
       </c>
       <c r="D20">
-        <v>0.01</v>
+        <v>486530800</v>
       </c>
       <c r="E20">
         <v>0.01</v>
       </c>
       <c r="F20">
-        <v>617749</v>
+        <v>0.01</v>
       </c>
       <c r="G20">
-        <v>629937</v>
+        <v>0.01</v>
       </c>
       <c r="H20">
-        <v>256612</v>
+        <v>782103</v>
       </c>
       <c r="I20">
-        <v>271137</v>
+        <v>929100</v>
       </c>
       <c r="J20">
-        <v>361137</v>
+        <v>910427</v>
       </c>
       <c r="K20">
-        <v>271137</v>
+        <v>335151</v>
       </c>
       <c r="L20">
-        <v>5642</v>
+        <v>482358</v>
       </c>
       <c r="M20">
-        <v>4236</v>
+        <v>464531</v>
       </c>
       <c r="N20">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>446742</v>
+      </c>
+      <c r="P20">
+        <v>464531</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>6980</v>
+      </c>
+      <c r="S20">
+        <v>7258</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>28</v>
+      </c>
+      <c r="V20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>429275641</v>
+        <v>441967400</v>
       </c>
       <c r="C21">
-        <v>428451220</v>
+        <v>440586400</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>441207800</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>332691</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>340310</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>213533</v>
+        <v>8721</v>
       </c>
       <c r="I21">
-        <v>218880</v>
+        <v>11635</v>
       </c>
       <c r="J21">
-        <v>119158</v>
+        <v>11638</v>
       </c>
       <c r="K21">
-        <v>218880</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1862</v>
+        <v>2914</v>
       </c>
       <c r="M21">
-        <v>3420</v>
+        <v>2915</v>
       </c>
       <c r="N21">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>8721</v>
+      </c>
+      <c r="P21">
+        <v>2915</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>136</v>
+      </c>
+      <c r="S21">
+        <v>45</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>4</v>
+      </c>
+      <c r="V21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>367232605</v>
+        <v>384308600</v>
       </c>
       <c r="C22">
-        <v>361228847</v>
+        <v>393021000</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>393297600</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>240329</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>241274</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>112838</v>
+        <v>59324</v>
       </c>
       <c r="I22">
-        <v>113814</v>
+        <v>83172</v>
       </c>
       <c r="J22">
-        <v>127491</v>
+        <v>83144</v>
       </c>
       <c r="K22">
-        <v>113814</v>
+        <v>10474</v>
       </c>
       <c r="L22">
-        <v>1992</v>
+        <v>34320</v>
       </c>
       <c r="M22">
-        <v>1778</v>
+        <v>34293</v>
       </c>
       <c r="N22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>48852</v>
+      </c>
+      <c r="P22">
+        <v>34293</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>763</v>
+      </c>
+      <c r="S22">
+        <v>535</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>508450252</v>
+        <v>1114200</v>
       </c>
       <c r="C23">
-        <v>509406652</v>
+        <v>1123200</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1114400</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F23">
-        <v>274474</v>
+        <v>0.06</v>
       </c>
       <c r="G23">
-        <v>299358</v>
+        <v>0.06</v>
       </c>
       <c r="H23">
-        <v>130833</v>
+        <v>6935</v>
       </c>
       <c r="I23">
-        <v>154667</v>
+        <v>6933</v>
       </c>
       <c r="J23">
-        <v>143641</v>
+        <v>6936</v>
       </c>
       <c r="K23">
-        <v>154667</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>2244</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>2416</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>6933</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>108</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>574599855</v>
+        <v>546589400</v>
       </c>
       <c r="C24">
-        <v>574810655</v>
+        <v>549671600</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>548594600</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F24">
-        <v>157480</v>
+        <v>0.02</v>
       </c>
       <c r="G24">
-        <v>151649</v>
+        <v>0.02</v>
       </c>
       <c r="H24">
-        <v>108168</v>
+        <v>1556214</v>
       </c>
       <c r="I24">
-        <v>102164</v>
+        <v>1567255</v>
       </c>
       <c r="J24">
-        <v>49312</v>
+        <v>1563328</v>
       </c>
       <c r="K24">
-        <v>102164</v>
+        <v>724903</v>
       </c>
       <c r="L24">
-        <v>770</v>
+        <v>738961</v>
       </c>
       <c r="M24">
-        <v>1596</v>
+        <v>735735</v>
       </c>
       <c r="N24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>828294</v>
+      </c>
+      <c r="P24">
+        <v>735735</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12942</v>
+      </c>
+      <c r="S24">
+        <v>11495</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>263</v>
+      </c>
+      <c r="V24">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>455354091</v>
+        <v>5254640400</v>
       </c>
       <c r="C25">
-        <v>456504291</v>
+        <v>5243017000</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>5238831800</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="F25">
-        <v>152366</v>
+        <v>0.24</v>
       </c>
       <c r="G25">
-        <v>150874</v>
+        <v>0.24</v>
       </c>
       <c r="H25">
-        <v>83099</v>
+        <v>129428332</v>
       </c>
       <c r="I25">
-        <v>82447</v>
+        <v>129878464</v>
       </c>
       <c r="J25">
-        <v>69267</v>
+        <v>129906437</v>
       </c>
       <c r="K25">
-        <v>82447</v>
+        <v>64224722</v>
       </c>
       <c r="L25">
-        <v>1082</v>
+        <v>64674015</v>
       </c>
       <c r="M25">
-        <v>1288</v>
+        <v>64702087</v>
       </c>
       <c r="N25">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>65204449</v>
+      </c>
+      <c r="P25">
+        <v>64702087</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1018819</v>
+      </c>
+      <c r="S25">
+        <v>1010970</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>501350</v>
+      </c>
+      <c r="V25">
+        <v>501321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>372637892</v>
+        <v>563063200</v>
       </c>
       <c r="C26">
-        <v>370925892</v>
+        <v>611229000</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>602331600</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F26">
-        <v>203370</v>
+        <v>0.12</v>
       </c>
       <c r="G26">
-        <v>205716</v>
+        <v>0.12</v>
       </c>
       <c r="H26">
-        <v>89327</v>
+        <v>7361222</v>
       </c>
       <c r="I26">
-        <v>91790</v>
+        <v>7642206</v>
       </c>
       <c r="J26">
-        <v>114043</v>
+        <v>7496165</v>
       </c>
       <c r="K26">
-        <v>91790</v>
+        <v>3327617</v>
       </c>
       <c r="L26">
-        <v>1781</v>
+        <v>3445635</v>
       </c>
       <c r="M26">
-        <v>1434</v>
+        <v>3451584</v>
       </c>
       <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>4196571</v>
+      </c>
+      <c r="P26">
+        <v>3451584</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>65571</v>
+      </c>
+      <c r="S26">
+        <v>53931</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>149</v>
+      </c>
+      <c r="V26">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>631099000</v>
+      </c>
+      <c r="C27">
+        <v>644426800</v>
+      </c>
+      <c r="D27">
+        <v>528338800</v>
+      </c>
+      <c r="E27">
+        <v>0.25</v>
+      </c>
+      <c r="F27">
+        <v>0.25</v>
+      </c>
+      <c r="G27">
+        <v>0.3</v>
+      </c>
+      <c r="H27">
+        <v>16099067</v>
+      </c>
+      <c r="I27">
+        <v>16145482</v>
+      </c>
+      <c r="J27">
+        <v>16149584</v>
+      </c>
+      <c r="K27">
+        <v>7867347</v>
+      </c>
+      <c r="L27">
+        <v>7915769</v>
+      </c>
+      <c r="M27">
+        <v>7918723</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>8229713</v>
+      </c>
+      <c r="P27">
+        <v>7918723</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>128589</v>
+      </c>
+      <c r="S27">
+        <v>123730</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>324</v>
+      </c>
+      <c r="V27">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>340262800</v>
+      </c>
+      <c r="C28">
+        <v>363309800</v>
+      </c>
+      <c r="D28">
+        <v>362996000</v>
+      </c>
+      <c r="E28">
+        <v>0.05</v>
+      </c>
+      <c r="F28">
+        <v>0.11</v>
+      </c>
+      <c r="G28">
+        <v>0.11</v>
+      </c>
+      <c r="H28">
+        <v>1838871</v>
+      </c>
+      <c r="I28">
+        <v>4262064</v>
+      </c>
+      <c r="J28">
+        <v>4220927</v>
+      </c>
+      <c r="K28">
+        <v>841283</v>
+      </c>
+      <c r="L28">
+        <v>3209250</v>
+      </c>
+      <c r="M28">
+        <v>3208932</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1052814</v>
+      </c>
+      <c r="P28">
+        <v>3208932</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>16450</v>
+      </c>
+      <c r="S28">
+        <v>50139</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>1735</v>
+      </c>
+      <c r="V28">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>381292600</v>
+      </c>
+      <c r="C29">
+        <v>381722000</v>
+      </c>
+      <c r="D29">
+        <v>382898200</v>
+      </c>
+      <c r="E29">
+        <v>0.01</v>
+      </c>
+      <c r="F29">
+        <v>0.01</v>
+      </c>
+      <c r="G29">
+        <v>0.01</v>
+      </c>
+      <c r="H29">
+        <v>502220</v>
+      </c>
+      <c r="I29">
+        <v>523435</v>
+      </c>
+      <c r="J29">
+        <v>526429</v>
+      </c>
+      <c r="K29">
+        <v>231515</v>
+      </c>
+      <c r="L29">
+        <v>252787</v>
+      </c>
+      <c r="M29">
+        <v>255581</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>270648</v>
+      </c>
+      <c r="P29">
+        <v>255581</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>4228</v>
+      </c>
+      <c r="S29">
+        <v>3993</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>11</v>
+      </c>
+      <c r="V29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>410684600</v>
+      </c>
+      <c r="C30">
+        <v>403731800</v>
+      </c>
+      <c r="D30">
+        <v>416052200</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>81123</v>
+      </c>
+      <c r="I30">
+        <v>110555</v>
+      </c>
+      <c r="J30">
+        <v>111790</v>
+      </c>
+      <c r="K30">
+        <v>20902</v>
+      </c>
+      <c r="L30">
+        <v>50331</v>
+      </c>
+      <c r="M30">
+        <v>51559</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>60224</v>
+      </c>
+      <c r="P30">
+        <v>51559</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>941</v>
+      </c>
+      <c r="S30">
+        <v>805</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
         <v>4</v>
       </c>
-      <c r="O26">
+      <c r="V30">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27">
-        <v>461450392</v>
-      </c>
-      <c r="C27">
-        <v>458687108</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>127077</v>
-      </c>
-      <c r="G27">
-        <v>127774</v>
-      </c>
-      <c r="H27">
-        <v>66458</v>
-      </c>
-      <c r="I27">
-        <v>66947</v>
-      </c>
-      <c r="J27">
-        <v>60619</v>
-      </c>
-      <c r="K27">
-        <v>66947</v>
-      </c>
-      <c r="L27">
-        <v>947</v>
-      </c>
-      <c r="M27">
-        <v>1046</v>
-      </c>
-      <c r="N27">
-        <v>7</v>
-      </c>
-      <c r="O27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28">
-        <v>458121093</v>
-      </c>
-      <c r="C28">
-        <v>460145913</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>152183</v>
-      </c>
-      <c r="G28">
-        <v>151954</v>
-      </c>
-      <c r="H28">
-        <v>86467</v>
-      </c>
-      <c r="I28">
-        <v>86428</v>
-      </c>
-      <c r="J28">
-        <v>65716</v>
-      </c>
-      <c r="K28">
-        <v>86428</v>
-      </c>
-      <c r="L28">
-        <v>1026</v>
-      </c>
-      <c r="M28">
-        <v>1350</v>
-      </c>
-      <c r="N28">
-        <v>6</v>
-      </c>
-      <c r="O28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29">
-        <v>431186660</v>
-      </c>
-      <c r="C29">
-        <v>441355660</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>14454</v>
-      </c>
-      <c r="G29">
-        <v>14422</v>
-      </c>
-      <c r="H29">
-        <v>7019</v>
-      </c>
-      <c r="I29">
-        <v>6987</v>
-      </c>
-      <c r="J29">
-        <v>7435</v>
-      </c>
-      <c r="K29">
-        <v>6987</v>
-      </c>
-      <c r="L29">
-        <v>116</v>
-      </c>
-      <c r="M29">
-        <v>109</v>
-      </c>
-      <c r="N29">
-        <v>4</v>
-      </c>
-      <c r="O29">
-        <v>4</v>
+    <row r="31" spans="1:22">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>1638600</v>
+      </c>
+      <c r="C31">
+        <v>1646200</v>
+      </c>
+      <c r="D31">
+        <v>1644800</v>
+      </c>
+      <c r="E31">
+        <v>0.05</v>
+      </c>
+      <c r="F31">
+        <v>0.05</v>
+      </c>
+      <c r="G31">
+        <v>0.05</v>
+      </c>
+      <c r="H31">
+        <v>9327</v>
+      </c>
+      <c r="I31">
+        <v>9327</v>
+      </c>
+      <c r="J31">
+        <v>9327</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>9327</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>145</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
